--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_13_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_13_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1715390.900530613</v>
+        <v>1685040.527590755</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6036984.253669618</v>
+        <v>6036984.253669616</v>
       </c>
     </row>
     <row r="8">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>390.8378626949542</v>
+        <v>390.8378626949543</v>
       </c>
       <c r="F11" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4326540309573</v>
+        <v>410.4326540309574</v>
       </c>
       <c r="H11" t="n">
-        <v>39.93969079086865</v>
+        <v>267.6098872564818</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>150.9408918678262</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>389.6064368699204</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>126.6331371693018</v>
+        <v>126.6331371693017</v>
       </c>
       <c r="H12" t="n">
         <v>91.13414847334133</v>
       </c>
       <c r="I12" t="n">
-        <v>39.87648530760987</v>
+        <v>39.8764853076086</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.014718123708882</v>
+        <v>9.014718123708874</v>
       </c>
       <c r="S12" t="n">
         <v>136.2618012604453</v>
@@ -1517,7 +1517,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869169</v>
+        <v>190.5961130869175</v>
       </c>
     </row>
     <row r="13">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C13" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>34.12910414221728</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5530858569906</v>
+        <v>13.27017852375291</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>199.7662926185104</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>227.9525392365341</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>219.8148072196457</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.4326540309573</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>252.2156595111942</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>157.2210056644407</v>
+        <v>124.4940295150947</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
         <v>378.2098390737216</v>
@@ -1706,7 +1706,7 @@
         <v>91.13414847334133</v>
       </c>
       <c r="I15" t="n">
-        <v>39.87648530760861</v>
+        <v>39.8764853076086</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.014718123708882</v>
+        <v>9.014718123708748</v>
       </c>
       <c r="S15" t="n">
         <v>136.2618012604453</v>
       </c>
       <c r="T15" t="n">
-        <v>183.5411321587137</v>
+        <v>183.5411321587147</v>
       </c>
       <c r="U15" t="n">
         <v>216.256681464012</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>122.3877850853864</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>199.7662926185104</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>130.5225630461159</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y16" t="n">
-        <v>189.7511355262398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>51.65179400323287</v>
+        <v>410.4326540309573</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>112.8634694374322</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>215.5040507335656</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>90.91801752542554</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>389.6064368699203</v>
@@ -1934,7 +1934,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696256</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
         <v>126.6331371693018</v>
@@ -1943,7 +1943,7 @@
         <v>91.13414847334133</v>
       </c>
       <c r="I18" t="n">
-        <v>39.87648530760861</v>
+        <v>39.8764853076086</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.014718123708882</v>
+        <v>9.014718123708874</v>
       </c>
       <c r="S18" t="n">
         <v>136.2618012604453</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.5530858569906</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.7556364732146</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9525392365341</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>284.2813844636727</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>46.99487142799751</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>131.258464301688</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>51.65179400323287</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>314.0257770630316</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>17.67898050972176</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>215.5040507335656</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>389.6064368699203</v>
@@ -2177,10 +2177,10 @@
         <v>126.6331371693018</v>
       </c>
       <c r="H21" t="n">
-        <v>91.13414847334133</v>
+        <v>91.13414847334214</v>
       </c>
       <c r="I21" t="n">
-        <v>39.87648530760861</v>
+        <v>39.8764853076086</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.014718123708882</v>
+        <v>9.014718123708874</v>
       </c>
       <c r="S21" t="n">
         <v>136.2618012604453</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>105.3565302066487</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5530858569906</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>151.7556364732146</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>122.3877850853864</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>199.7662926185104</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9525392365341</v>
+        <v>72.45416689645664</v>
       </c>
       <c r="U22" t="n">
-        <v>284.2813844636727</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390.1031041228389</v>
+        <v>180.1926547392669</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>369.0957251250487</v>
@@ -2332,13 +2332,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>338.8069012383663</v>
+        <v>410.4326540309573</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>314.0257770630316</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>112.8634694374322</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>215.5040507335656</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.2156595111942</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
@@ -2383,7 +2383,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>389.6064368699203</v>
@@ -2417,7 +2417,7 @@
         <v>91.13414847334133</v>
       </c>
       <c r="I24" t="n">
-        <v>39.87648530760861</v>
+        <v>39.8764853076086</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.014718123708882</v>
+        <v>9.014718123708874</v>
       </c>
       <c r="S24" t="n">
         <v>136.2618012604453</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>84.3206153784696</v>
+        <v>199.7662926185104</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>284.2813844636727</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>75.18111804602124</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
         <v>378.1144210805207</v>
@@ -2572,10 +2572,10 @@
         <v>410.4326540309573</v>
       </c>
       <c r="H26" t="n">
-        <v>240.3640779554082</v>
+        <v>314.0257770630316</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>112.8634694374322</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>150.9408918678261</v>
       </c>
       <c r="T26" t="n">
         <v>215.5040507335656</v>
       </c>
       <c r="U26" t="n">
-        <v>252.2156595111942</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>205.7689593832682</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>91.13414847334133</v>
       </c>
       <c r="I27" t="n">
-        <v>39.87648530760861</v>
+        <v>39.8764853076086</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.014718123708882</v>
+        <v>9.014718123708874</v>
       </c>
       <c r="S27" t="n">
         <v>136.2618012604453</v>
@@ -2715,10 +2715,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8124399486695681</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>150.4889240962943</v>
@@ -2727,13 +2727,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5530858569906</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>113.5538427227216</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>117.5652606754719</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>219.8148072196457</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>334.0456227933208</v>
       </c>
       <c r="E29" t="n">
         <v>390.8378626949542</v>
@@ -2806,13 +2806,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.4326540309573</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>314.0257770630316</v>
       </c>
       <c r="I29" t="n">
-        <v>110.2494032486187</v>
+        <v>112.8634694374322</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>150.9408918678262</v>
+        <v>150.9408918678261</v>
       </c>
       <c r="T29" t="n">
         <v>215.5040507335656</v>
@@ -2851,16 +2851,16 @@
         <v>252.2156595111942</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>91.13414847334133</v>
       </c>
       <c r="I30" t="n">
-        <v>39.87648530760861</v>
+        <v>39.8764853076086</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.014718123708882</v>
+        <v>9.014718123708874</v>
       </c>
       <c r="S30" t="n">
         <v>136.2618012604453</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.9198098429365</v>
+        <v>112.5602401714256</v>
       </c>
       <c r="D31" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5530858569906</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>62.14704341103637</v>
+        <v>151.7556364732146</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>199.7662926185104</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>227.9525392365341</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>369.0957251250487</v>
@@ -3046,10 +3046,10 @@
         <v>410.4326540309573</v>
       </c>
       <c r="H32" t="n">
-        <v>314.0257770630316</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>112.8634694374322</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>150.9408918678261</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>215.5040507335656</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.2156595111942</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>194.0040629109372</v>
+        <v>46.73764701631877</v>
       </c>
       <c r="X32" t="n">
         <v>378.2098390737216</v>
@@ -3128,7 +3128,7 @@
         <v>91.13414847334133</v>
       </c>
       <c r="I33" t="n">
-        <v>39.87648530760861</v>
+        <v>39.8764853076086</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.014718123708882</v>
+        <v>9.014718123708874</v>
       </c>
       <c r="S33" t="n">
         <v>136.2618012604453</v>
@@ -3189,19 +3189,19 @@
         <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5530858569906</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>199.7662926185104</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9525392365341</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.2813844636727</v>
       </c>
       <c r="V34" t="n">
-        <v>104.8450440639233</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>13.74462792770575</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,19 +3271,19 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>290.757779763302</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.4326540309573</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>32.05700266722977</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>215.5040507335656</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>389.6064368699203</v>
@@ -3347,7 +3347,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C36" t="n">
-        <v>160.0866360314548</v>
+        <v>160.0866360314556</v>
       </c>
       <c r="D36" t="n">
         <v>137.45025063969</v>
@@ -3365,7 +3365,7 @@
         <v>91.13414847334133</v>
       </c>
       <c r="I36" t="n">
-        <v>39.87648530760861</v>
+        <v>39.8764853076086</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.014718123708882</v>
+        <v>9.014718123708874</v>
       </c>
       <c r="S36" t="n">
         <v>136.2618012604453</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>123.1917741913171</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>151.7556364732146</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>199.7662926185104</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>284.2813844636727</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>167.849160227734</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.4326540309573</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>314.0257770630316</v>
       </c>
       <c r="I38" t="n">
-        <v>112.8634694374322</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>215.5040507335656</v>
       </c>
       <c r="U38" t="n">
-        <v>11.63056007766247</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>326.7416555808942</v>
       </c>
       <c r="X38" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>91.13414847334133</v>
       </c>
       <c r="I39" t="n">
-        <v>39.87648530760861</v>
+        <v>39.8764853076086</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.014718123708882</v>
+        <v>9.014718123708874</v>
       </c>
       <c r="S39" t="n">
         <v>136.2618012604453</v>
       </c>
       <c r="T39" t="n">
-        <v>183.5411321587137</v>
+        <v>183.5411321587138</v>
       </c>
       <c r="U39" t="n">
         <v>216.256681464012</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>199.7662926185104</v>
+        <v>46.00747120095374</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9525392365341</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>284.2813844636727</v>
       </c>
       <c r="V40" t="n">
-        <v>160.6979752067434</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
         <v>283.2948374677749</v>
@@ -3742,13 +3742,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>267.8995596225043</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>314.0257770630316</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>112.8634694374322</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>150.9408918678261</v>
       </c>
       <c r="T41" t="n">
         <v>215.5040507335656</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.2156595111942</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>205.5746196934605</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>91.13414847334133</v>
       </c>
       <c r="I42" t="n">
-        <v>39.87648530760861</v>
+        <v>39.8764853076086</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.014718123708882</v>
+        <v>9.014718123708874</v>
       </c>
       <c r="S42" t="n">
         <v>136.2618012604453</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>117.5652606754719</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>199.7662926185104</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>227.9525392365341</v>
       </c>
       <c r="U43" t="n">
-        <v>284.2813844636727</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>12.95815560179003</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>102.3363164280923</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
-        <v>378.1144210805199</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.4326540309573</v>
+        <v>190.0020302312073</v>
       </c>
       <c r="H44" t="n">
         <v>314.0257770630316</v>
       </c>
       <c r="I44" t="n">
-        <v>112.8634694374322</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>150.9408918678261</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>215.5040507335656</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>45.87429097864371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>126.6331371693018</v>
       </c>
       <c r="H45" t="n">
-        <v>91.13414847334133</v>
+        <v>91.1341484733413</v>
       </c>
       <c r="I45" t="n">
-        <v>39.87648530760861</v>
+        <v>39.8764853076086</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.014718123708882</v>
+        <v>9.014718123708874</v>
       </c>
       <c r="S45" t="n">
-        <v>136.2618012604453</v>
+        <v>136.261801260446</v>
       </c>
       <c r="T45" t="n">
-        <v>183.5411321587152</v>
+        <v>183.5411321587137</v>
       </c>
       <c r="U45" t="n">
         <v>216.256681464012</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>84.44041424665544</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -4146,19 +4146,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>130.4028440585802</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5530858569906</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>151.7556364732146</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>11.55987027912874</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>199.7662926185104</v>
       </c>
       <c r="T46" t="n">
         <v>227.9525392365341</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2067.854148204224</v>
+        <v>1915.890284956842</v>
       </c>
       <c r="C11" t="n">
-        <v>1685.920389537031</v>
+        <v>1915.890284956842</v>
       </c>
       <c r="D11" t="n">
-        <v>1313.096424764255</v>
+        <v>1543.066320184066</v>
       </c>
       <c r="E11" t="n">
-        <v>918.3107048703614</v>
+        <v>1148.280600290173</v>
       </c>
       <c r="F11" t="n">
-        <v>504.1595141805317</v>
+        <v>734.129409600343</v>
       </c>
       <c r="G11" t="n">
-        <v>89.58107576542329</v>
+        <v>319.5509711852345</v>
       </c>
       <c r="H11" t="n">
         <v>49.23795375444486</v>
@@ -5044,49 +5044,49 @@
         <v>49.23795375444486</v>
       </c>
       <c r="K11" t="n">
-        <v>68.3938381118453</v>
+        <v>479.5720655138946</v>
       </c>
       <c r="L11" t="n">
-        <v>652.231363393738</v>
+        <v>525.8796076693576</v>
       </c>
       <c r="M11" t="n">
-        <v>1261.551041104993</v>
+        <v>1010.742745057926</v>
       </c>
       <c r="N11" t="n">
-        <v>1870.870718816248</v>
+        <v>1620.062422769181</v>
       </c>
       <c r="O11" t="n">
-        <v>2427.797950713782</v>
+        <v>2176.989654666715</v>
       </c>
       <c r="P11" t="n">
-        <v>2456.810060893679</v>
+        <v>2206.001764846612</v>
       </c>
       <c r="Q11" t="n">
-        <v>2456.810060893679</v>
+        <v>2461.897687722243</v>
       </c>
       <c r="R11" t="n">
         <v>2461.897687722243</v>
       </c>
       <c r="S11" t="n">
-        <v>2461.897687722243</v>
+        <v>2309.432140381005</v>
       </c>
       <c r="T11" t="n">
-        <v>2461.897687722243</v>
+        <v>2309.432140381005</v>
       </c>
       <c r="U11" t="n">
-        <v>2461.897687722243</v>
+        <v>2309.432140381005</v>
       </c>
       <c r="V11" t="n">
-        <v>2461.897687722243</v>
+        <v>2309.432140381005</v>
       </c>
       <c r="W11" t="n">
-        <v>2461.897687722243</v>
+        <v>2309.432140381005</v>
       </c>
       <c r="X11" t="n">
-        <v>2461.897687722243</v>
+        <v>2309.432140381005</v>
       </c>
       <c r="Y11" t="n">
-        <v>2461.897687722243</v>
+        <v>1915.890284956842</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>891.7483047996163</v>
+        <v>891.7483047996152</v>
       </c>
       <c r="C12" t="n">
-        <v>730.0446320405711</v>
+        <v>730.0446320405697</v>
       </c>
       <c r="D12" t="n">
-        <v>591.2059950307831</v>
+        <v>591.2059950307819</v>
       </c>
       <c r="E12" t="n">
-        <v>444.1779850876543</v>
+        <v>444.177985087653</v>
       </c>
       <c r="F12" t="n">
-        <v>309.4841870375287</v>
+        <v>309.4841870375274</v>
       </c>
       <c r="G12" t="n">
-        <v>181.5719272705572</v>
+        <v>181.5719272705559</v>
       </c>
       <c r="H12" t="n">
-        <v>89.51723184293968</v>
+        <v>89.5172318429384</v>
       </c>
       <c r="I12" t="n">
         <v>49.23795375444486</v>
@@ -5123,19 +5123,19 @@
         <v>49.23795375444486</v>
       </c>
       <c r="K12" t="n">
-        <v>67.54372276049008</v>
+        <v>323.2083260918864</v>
       </c>
       <c r="L12" t="n">
-        <v>607.0666773554406</v>
+        <v>862.7312806868368</v>
       </c>
       <c r="M12" t="n">
-        <v>695.438615566164</v>
+        <v>1472.050958398092</v>
       </c>
       <c r="N12" t="n">
-        <v>1164.60727960879</v>
+        <v>1574.468862848389</v>
       </c>
       <c r="O12" t="n">
-        <v>1747.146874529271</v>
+        <v>2157.00845776887</v>
       </c>
       <c r="P12" t="n">
         <v>2202.00713886382</v>
@@ -5153,19 +5153,19 @@
         <v>2129.75864575975</v>
       </c>
       <c r="U12" t="n">
-        <v>1911.31755337186</v>
+        <v>1911.317553371859</v>
       </c>
       <c r="V12" t="n">
         <v>1682.921930820193</v>
       </c>
       <c r="W12" t="n">
-        <v>1441.606062053504</v>
+        <v>1441.606062053503</v>
       </c>
       <c r="X12" t="n">
         <v>1243.689073931298</v>
       </c>
       <c r="Y12" t="n">
-        <v>1051.167747580877</v>
+        <v>1051.167747580876</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>421.5632061202473</v>
+        <v>62.64217448550841</v>
       </c>
       <c r="C13" t="n">
-        <v>251.9472365819276</v>
+        <v>62.64217448550841</v>
       </c>
       <c r="D13" t="n">
-        <v>251.9472365819276</v>
+        <v>62.64217448550841</v>
       </c>
       <c r="E13" t="n">
-        <v>251.9472365819276</v>
+        <v>62.64217448550841</v>
       </c>
       <c r="F13" t="n">
-        <v>217.4733940140313</v>
+        <v>62.64217448550841</v>
       </c>
       <c r="G13" t="n">
         <v>49.23795375444486</v>
@@ -5205,46 +5205,46 @@
         <v>160.7641990212247</v>
       </c>
       <c r="L13" t="n">
-        <v>361.0846844243831</v>
+        <v>361.0846844243808</v>
       </c>
       <c r="M13" t="n">
-        <v>584.2119963308735</v>
+        <v>584.2119963308713</v>
       </c>
       <c r="N13" t="n">
-        <v>805.2682969435508</v>
+        <v>805.2682969435486</v>
       </c>
       <c r="O13" t="n">
-        <v>998.531016236907</v>
+        <v>998.5310162369049</v>
       </c>
       <c r="P13" t="n">
-        <v>1142.616483789341</v>
+        <v>1142.616483789339</v>
       </c>
       <c r="Q13" t="n">
-        <v>1161.007230515195</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="R13" t="n">
-        <v>1161.007230515195</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="S13" t="n">
-        <v>1161.007230515195</v>
+        <v>959.2230965571018</v>
       </c>
       <c r="T13" t="n">
-        <v>1161.007230515195</v>
+        <v>728.9680064191886</v>
       </c>
       <c r="U13" t="n">
-        <v>1161.007230515195</v>
+        <v>728.9680064191886</v>
       </c>
       <c r="V13" t="n">
-        <v>1161.007230515195</v>
+        <v>468.2327019776112</v>
       </c>
       <c r="W13" t="n">
-        <v>874.8508290325944</v>
+        <v>468.2327019776112</v>
       </c>
       <c r="X13" t="n">
-        <v>643.5983649279702</v>
+        <v>468.2327019776112</v>
       </c>
       <c r="Y13" t="n">
-        <v>421.5632061202473</v>
+        <v>246.1975431698882</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1272.753302753276</v>
+        <v>803.9956771944139</v>
       </c>
       <c r="C14" t="n">
-        <v>1272.753302753276</v>
+        <v>422.0619185272213</v>
       </c>
       <c r="D14" t="n">
-        <v>1272.753302753276</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="E14" t="n">
-        <v>877.9675828593829</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="F14" t="n">
-        <v>463.8163921695533</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="G14" t="n">
         <v>49.23795375444486</v>
@@ -5278,28 +5278,28 @@
         <v>49.23795375444486</v>
       </c>
       <c r="J14" t="n">
-        <v>49.23795375444486</v>
+        <v>248.138856771452</v>
       </c>
       <c r="K14" t="n">
-        <v>479.5720655138946</v>
+        <v>261.2978225518128</v>
       </c>
       <c r="L14" t="n">
-        <v>1063.409590795787</v>
+        <v>845.1353478337055</v>
       </c>
       <c r="M14" t="n">
-        <v>1672.729268507042</v>
+        <v>922.3928289131329</v>
       </c>
       <c r="N14" t="n">
-        <v>2282.048946218298</v>
+        <v>1531.712506624388</v>
       </c>
       <c r="O14" t="n">
-        <v>2348.886344830678</v>
+        <v>1762.834717250016</v>
       </c>
       <c r="P14" t="n">
-        <v>2456.810060893679</v>
+        <v>2206.001764846612</v>
       </c>
       <c r="Q14" t="n">
-        <v>2456.810060893679</v>
+        <v>2461.897687722243</v>
       </c>
       <c r="R14" t="n">
         <v>2461.897687722243</v>
@@ -5311,19 +5311,19 @@
         <v>2461.897687722243</v>
       </c>
       <c r="U14" t="n">
-        <v>2207.134395286693</v>
+        <v>2461.897687722243</v>
       </c>
       <c r="V14" t="n">
-        <v>2048.325298655945</v>
+        <v>2336.146142757501</v>
       </c>
       <c r="W14" t="n">
-        <v>2048.325298655945</v>
+        <v>1973.611212615102</v>
       </c>
       <c r="X14" t="n">
-        <v>1666.295158177438</v>
+        <v>1591.581072136595</v>
       </c>
       <c r="Y14" t="n">
-        <v>1272.753302753276</v>
+        <v>1198.039216712433</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>891.7483047996153</v>
+        <v>891.7483047996151</v>
       </c>
       <c r="C15" t="n">
-        <v>730.04463204057</v>
+        <v>730.0446320405699</v>
       </c>
       <c r="D15" t="n">
-        <v>591.2059950307821</v>
+        <v>591.2059950307819</v>
       </c>
       <c r="E15" t="n">
-        <v>444.1779850876533</v>
+        <v>444.177985087653</v>
       </c>
       <c r="F15" t="n">
-        <v>309.4841870375276</v>
+        <v>309.4841870375274</v>
       </c>
       <c r="G15" t="n">
         <v>181.5719272705559</v>
@@ -5360,22 +5360,22 @@
         <v>49.23795375444486</v>
       </c>
       <c r="K15" t="n">
-        <v>173.2372917107105</v>
+        <v>407.9104827956788</v>
       </c>
       <c r="L15" t="n">
-        <v>712.7602463056609</v>
+        <v>947.4334373906293</v>
       </c>
       <c r="M15" t="n">
-        <v>1322.079924016916</v>
+        <v>1035.805375601353</v>
       </c>
       <c r="N15" t="n">
-        <v>1424.497828467213</v>
+        <v>1164.60727960879</v>
       </c>
       <c r="O15" t="n">
-        <v>2007.037423387694</v>
+        <v>1747.146874529271</v>
       </c>
       <c r="P15" t="n">
-        <v>2461.897687722243</v>
+        <v>2202.00713886382</v>
       </c>
       <c r="Q15" t="n">
         <v>2461.897687722243</v>
@@ -5387,7 +5387,7 @@
         <v>2315.15372874835</v>
       </c>
       <c r="T15" t="n">
-        <v>2129.75864575975</v>
+        <v>2129.758645759749</v>
       </c>
       <c r="U15" t="n">
         <v>1911.317553371859</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>477.351648306123</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="C16" t="n">
-        <v>477.351648306123</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="D16" t="n">
-        <v>477.351648306123</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="E16" t="n">
-        <v>325.3426340674418</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="F16" t="n">
-        <v>172.861979093219</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="G16" t="n">
-        <v>172.861979093219</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="H16" t="n">
-        <v>172.861979093219</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="I16" t="n">
         <v>49.23795375444486</v>
@@ -5463,25 +5463,25 @@
         <v>1161.007230515193</v>
       </c>
       <c r="S16" t="n">
-        <v>1161.007230515193</v>
+        <v>959.2230965571018</v>
       </c>
       <c r="T16" t="n">
-        <v>1161.007230515193</v>
+        <v>827.3821237832474</v>
       </c>
       <c r="U16" t="n">
-        <v>1161.007230515193</v>
+        <v>827.3821237832474</v>
       </c>
       <c r="V16" t="n">
-        <v>900.2719260736158</v>
+        <v>566.6468193416699</v>
       </c>
       <c r="W16" t="n">
-        <v>900.2719260736158</v>
+        <v>280.4904178590691</v>
       </c>
       <c r="X16" t="n">
-        <v>669.0194619689915</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="Y16" t="n">
-        <v>477.351648306123</v>
+        <v>49.23795375444486</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1292.282152301555</v>
+        <v>1364.795052114414</v>
       </c>
       <c r="C17" t="n">
-        <v>910.3483936343625</v>
+        <v>1364.795052114414</v>
       </c>
       <c r="D17" t="n">
-        <v>910.3483936343625</v>
+        <v>991.9710873416377</v>
       </c>
       <c r="E17" t="n">
-        <v>515.5626737404693</v>
+        <v>991.9710873416377</v>
       </c>
       <c r="F17" t="n">
-        <v>101.4114830506397</v>
+        <v>577.8198966518081</v>
       </c>
       <c r="G17" t="n">
-        <v>49.23795375444486</v>
+        <v>163.2414582366996</v>
       </c>
       <c r="H17" t="n">
-        <v>49.23795375444486</v>
+        <v>163.2414582366996</v>
       </c>
       <c r="I17" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="J17" t="n">
-        <v>49.23795375444486</v>
+        <v>248.138856771452</v>
       </c>
       <c r="K17" t="n">
-        <v>62.39691953480564</v>
+        <v>678.4729685309019</v>
       </c>
       <c r="L17" t="n">
-        <v>646.2344448166983</v>
+        <v>1041.306070243187</v>
       </c>
       <c r="M17" t="n">
-        <v>1255.554122527953</v>
+        <v>1118.563551322614</v>
       </c>
       <c r="N17" t="n">
-        <v>1864.873800239209</v>
+        <v>1200.819858523918</v>
       </c>
       <c r="O17" t="n">
-        <v>2421.801032136742</v>
+        <v>1757.747090421452</v>
       </c>
       <c r="P17" t="n">
-        <v>2456.810060893679</v>
+        <v>2200.914138018047</v>
       </c>
       <c r="Q17" t="n">
-        <v>2456.810060893679</v>
+        <v>2456.810060893678</v>
       </c>
       <c r="R17" t="n">
         <v>2461.897687722243</v>
@@ -5545,22 +5545,22 @@
         <v>2461.897687722243</v>
       </c>
       <c r="T17" t="n">
-        <v>2461.897687722243</v>
+        <v>2244.216828395409</v>
       </c>
       <c r="U17" t="n">
-        <v>2461.897687722243</v>
+        <v>2244.216828395409</v>
       </c>
       <c r="V17" t="n">
-        <v>2461.897687722243</v>
+        <v>2152.380447056595</v>
       </c>
       <c r="W17" t="n">
-        <v>2461.897687722243</v>
+        <v>2152.380447056595</v>
       </c>
       <c r="X17" t="n">
-        <v>2079.867547243736</v>
+        <v>2152.380447056595</v>
       </c>
       <c r="Y17" t="n">
-        <v>1686.325691819574</v>
+        <v>1758.838591632433</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>891.7483047996163</v>
+        <v>891.7483047996155</v>
       </c>
       <c r="C18" t="n">
-        <v>730.0446320405711</v>
+        <v>730.0446320405704</v>
       </c>
       <c r="D18" t="n">
-        <v>591.2059950307831</v>
+        <v>591.2059950307823</v>
       </c>
       <c r="E18" t="n">
-        <v>444.1779850876543</v>
+        <v>444.1779850876535</v>
       </c>
       <c r="F18" t="n">
-        <v>309.4841870375274</v>
+        <v>309.4841870375278</v>
       </c>
       <c r="G18" t="n">
-        <v>181.5719272705559</v>
+        <v>181.571927270556</v>
       </c>
       <c r="H18" t="n">
         <v>89.5172318429384</v>
       </c>
       <c r="I18" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="J18" t="n">
-        <v>49.23795375444486</v>
+        <v>185.0742757874069</v>
       </c>
       <c r="K18" t="n">
-        <v>67.54372276049008</v>
+        <v>543.7468048286408</v>
       </c>
       <c r="L18" t="n">
-        <v>607.0666773554406</v>
+        <v>1083.269759423591</v>
       </c>
       <c r="M18" t="n">
-        <v>1216.386355066696</v>
+        <v>1171.641697634315</v>
       </c>
       <c r="N18" t="n">
-        <v>1825.706032777951</v>
+        <v>1274.059602084612</v>
       </c>
       <c r="O18" t="n">
-        <v>2408.245627698432</v>
+        <v>1747.14687452927</v>
       </c>
       <c r="P18" t="n">
-        <v>2461.897687722243</v>
+        <v>2202.007138863819</v>
       </c>
       <c r="Q18" t="n">
         <v>2461.897687722243</v>
@@ -5627,19 +5627,19 @@
         <v>2129.75864575975</v>
       </c>
       <c r="U18" t="n">
-        <v>1911.31755337186</v>
+        <v>1911.317553371859</v>
       </c>
       <c r="V18" t="n">
         <v>1682.921930820193</v>
       </c>
       <c r="W18" t="n">
-        <v>1441.606062053504</v>
+        <v>1441.606062053503</v>
       </c>
       <c r="X18" t="n">
         <v>1243.689073931298</v>
       </c>
       <c r="Y18" t="n">
-        <v>1051.167747580877</v>
+        <v>1051.167747580876</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.23795375444486</v>
+        <v>844.8675544553709</v>
       </c>
       <c r="C19" t="n">
-        <v>49.23795375444486</v>
+        <v>675.2515849170511</v>
       </c>
       <c r="D19" t="n">
-        <v>49.23795375444486</v>
+        <v>675.2515849170511</v>
       </c>
       <c r="E19" t="n">
-        <v>49.23795375444486</v>
+        <v>523.2425706783699</v>
       </c>
       <c r="F19" t="n">
-        <v>49.23795375444486</v>
+        <v>370.761915704147</v>
       </c>
       <c r="G19" t="n">
-        <v>49.23795375444486</v>
+        <v>202.5264754445606</v>
       </c>
       <c r="H19" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="I19" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="J19" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="K19" t="n">
         <v>160.7641990212247</v>
@@ -5703,22 +5703,22 @@
         <v>1161.007230515193</v>
       </c>
       <c r="T19" t="n">
-        <v>930.7521403772799</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="U19" t="n">
-        <v>643.5992267776105</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="V19" t="n">
-        <v>382.8639223360331</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="W19" t="n">
-        <v>96.70752085343224</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="X19" t="n">
-        <v>49.23795375444486</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="Y19" t="n">
-        <v>49.23795375444486</v>
+        <v>1028.422923139751</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1292.282152301555</v>
+        <v>757.1172292067702</v>
       </c>
       <c r="C20" t="n">
-        <v>910.3483936343625</v>
+        <v>757.1172292067702</v>
       </c>
       <c r="D20" t="n">
-        <v>910.3483936343625</v>
+        <v>384.2932644339937</v>
       </c>
       <c r="E20" t="n">
-        <v>515.5626737404693</v>
+        <v>384.2932644339937</v>
       </c>
       <c r="F20" t="n">
-        <v>101.4114830506397</v>
+        <v>384.2932644339937</v>
       </c>
       <c r="G20" t="n">
-        <v>49.23795375444486</v>
+        <v>384.2932644339937</v>
       </c>
       <c r="H20" t="n">
-        <v>49.23795375444486</v>
+        <v>67.09550982487087</v>
       </c>
       <c r="I20" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="J20" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="K20" t="n">
-        <v>479.5720655138946</v>
+        <v>68.39383811184518</v>
       </c>
       <c r="L20" t="n">
-        <v>1063.409590795787</v>
+        <v>652.2313633937379</v>
       </c>
       <c r="M20" t="n">
-        <v>1672.729268507042</v>
+        <v>1261.551041104993</v>
       </c>
       <c r="N20" t="n">
-        <v>2282.048946218298</v>
+        <v>1870.870718816248</v>
       </c>
       <c r="O20" t="n">
-        <v>2348.886344830678</v>
+        <v>2427.797950713781</v>
       </c>
       <c r="P20" t="n">
-        <v>2456.810060893679</v>
+        <v>2456.810060893678</v>
       </c>
       <c r="Q20" t="n">
-        <v>2456.810060893679</v>
+        <v>2456.810060893678</v>
       </c>
       <c r="R20" t="n">
         <v>2461.897687722243</v>
@@ -5782,22 +5782,22 @@
         <v>2461.897687722243</v>
       </c>
       <c r="T20" t="n">
-        <v>2461.897687722243</v>
+        <v>2244.216828395409</v>
       </c>
       <c r="U20" t="n">
-        <v>2461.897687722243</v>
+        <v>2244.216828395409</v>
       </c>
       <c r="V20" t="n">
-        <v>2461.897687722243</v>
+        <v>1907.23755429135</v>
       </c>
       <c r="W20" t="n">
-        <v>2461.897687722243</v>
+        <v>1544.702624148951</v>
       </c>
       <c r="X20" t="n">
-        <v>2079.867547243736</v>
+        <v>1544.702624148951</v>
       </c>
       <c r="Y20" t="n">
-        <v>1686.325691819574</v>
+        <v>1151.160768724789</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>891.7483047996153</v>
+        <v>891.7483047996159</v>
       </c>
       <c r="C21" t="n">
-        <v>730.04463204057</v>
+        <v>730.0446320405706</v>
       </c>
       <c r="D21" t="n">
-        <v>591.2059950307821</v>
+        <v>591.2059950307827</v>
       </c>
       <c r="E21" t="n">
-        <v>444.1779850876533</v>
+        <v>444.1779850876539</v>
       </c>
       <c r="F21" t="n">
-        <v>309.4841870375276</v>
+        <v>309.4841870375283</v>
       </c>
       <c r="G21" t="n">
-        <v>181.5719272705561</v>
+        <v>181.5719272705567</v>
       </c>
       <c r="H21" t="n">
-        <v>89.5172318429386</v>
+        <v>89.5172318429384</v>
       </c>
       <c r="I21" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="J21" t="n">
-        <v>49.23795375444486</v>
+        <v>185.0742757874069</v>
       </c>
       <c r="K21" t="n">
-        <v>187.2832579502839</v>
+        <v>203.3800447934522</v>
       </c>
       <c r="L21" t="n">
-        <v>726.8062125452343</v>
+        <v>265.6314749828508</v>
       </c>
       <c r="M21" t="n">
-        <v>815.1781507559577</v>
+        <v>874.9511526941058</v>
       </c>
       <c r="N21" t="n">
-        <v>1424.497828467213</v>
+        <v>1484.270830405361</v>
       </c>
       <c r="O21" t="n">
-        <v>2007.037423387694</v>
+        <v>2066.810425325842</v>
       </c>
       <c r="P21" t="n">
-        <v>2461.897687722243</v>
+        <v>2202.007138863819</v>
       </c>
       <c r="Q21" t="n">
         <v>2461.897687722243</v>
@@ -5873,10 +5873,10 @@
         <v>1441.606062053503</v>
       </c>
       <c r="X21" t="n">
-        <v>1243.689073931297</v>
+        <v>1243.689073931298</v>
       </c>
       <c r="Y21" t="n">
-        <v>1051.167747580876</v>
+        <v>1051.167747580877</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>155.6586913369183</v>
+        <v>664.0019105812408</v>
       </c>
       <c r="C22" t="n">
-        <v>49.23795375444486</v>
+        <v>494.3859410429211</v>
       </c>
       <c r="D22" t="n">
-        <v>49.23795375444486</v>
+        <v>494.3859410429211</v>
       </c>
       <c r="E22" t="n">
-        <v>49.23795375444486</v>
+        <v>494.3859410429211</v>
       </c>
       <c r="F22" t="n">
-        <v>49.23795375444486</v>
+        <v>494.3859410429211</v>
       </c>
       <c r="G22" t="n">
-        <v>49.23795375444486</v>
+        <v>326.1505007833347</v>
       </c>
       <c r="H22" t="n">
-        <v>49.23795375444486</v>
+        <v>172.861979093219</v>
       </c>
       <c r="I22" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="J22" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="K22" t="n">
         <v>160.7641990212247</v>
@@ -5940,22 +5940,22 @@
         <v>959.2230965571018</v>
       </c>
       <c r="T22" t="n">
-        <v>728.9680064191886</v>
+        <v>886.0370693889638</v>
       </c>
       <c r="U22" t="n">
-        <v>441.8150928195192</v>
+        <v>886.0370693889638</v>
       </c>
       <c r="V22" t="n">
-        <v>441.8150928195192</v>
+        <v>886.0370693889638</v>
       </c>
       <c r="W22" t="n">
-        <v>155.6586913369183</v>
+        <v>886.0370693889638</v>
       </c>
       <c r="X22" t="n">
-        <v>155.6586913369183</v>
+        <v>886.0370693889638</v>
       </c>
       <c r="Y22" t="n">
-        <v>155.6586913369183</v>
+        <v>664.0019105812408</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1982.965736721532</v>
+        <v>2104.582482390759</v>
       </c>
       <c r="C23" t="n">
-        <v>1601.03197805434</v>
+        <v>2104.582482390759</v>
       </c>
       <c r="D23" t="n">
-        <v>1228.208013281563</v>
+        <v>1731.758517617983</v>
       </c>
       <c r="E23" t="n">
-        <v>833.4222933876702</v>
+        <v>1336.972797724089</v>
       </c>
       <c r="F23" t="n">
-        <v>419.2711026978405</v>
+        <v>922.8216070342596</v>
       </c>
       <c r="G23" t="n">
-        <v>77.04190952777356</v>
+        <v>508.2431686191512</v>
       </c>
       <c r="H23" t="n">
-        <v>77.04190952777356</v>
+        <v>191.0454140100283</v>
       </c>
       <c r="I23" t="n">
         <v>77.04190952777356</v>
@@ -5992,7 +5992,7 @@
         <v>275.9428125447807</v>
       </c>
       <c r="K23" t="n">
-        <v>706.2769243042305</v>
+        <v>706.2769243042304</v>
       </c>
       <c r="L23" t="n">
         <v>1290.114449586123</v>
@@ -6001,16 +6001,16 @@
         <v>1945.895848270826</v>
       </c>
       <c r="N23" t="n">
-        <v>2591.017647190353</v>
+        <v>2591.017647190354</v>
       </c>
       <c r="O23" t="n">
-        <v>3147.944879087886</v>
+        <v>3147.944879087887</v>
       </c>
       <c r="P23" t="n">
-        <v>3591.111926684482</v>
+        <v>3591.111926684483</v>
       </c>
       <c r="Q23" t="n">
-        <v>3847.007849560113</v>
+        <v>3847.007849560114</v>
       </c>
       <c r="R23" t="n">
         <v>3852.095476388678</v>
@@ -6019,22 +6019,22 @@
         <v>3852.095476388678</v>
       </c>
       <c r="T23" t="n">
-        <v>3852.095476388678</v>
+        <v>3634.414617061844</v>
       </c>
       <c r="U23" t="n">
-        <v>3852.095476388678</v>
+        <v>3379.651324626294</v>
       </c>
       <c r="V23" t="n">
-        <v>3515.116202284619</v>
+        <v>3042.672050522236</v>
       </c>
       <c r="W23" t="n">
-        <v>3152.58127214222</v>
+        <v>2680.137120379837</v>
       </c>
       <c r="X23" t="n">
-        <v>2770.551131663713</v>
+        <v>2680.137120379837</v>
       </c>
       <c r="Y23" t="n">
-        <v>2377.009276239552</v>
+        <v>2286.595264955675</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>77.04190952777356</v>
       </c>
       <c r="J24" t="n">
-        <v>77.04190952777356</v>
+        <v>212.8782315607356</v>
       </c>
       <c r="K24" t="n">
-        <v>95.34767853381878</v>
+        <v>571.5507606019696</v>
       </c>
       <c r="L24" t="n">
-        <v>634.8706331287692</v>
+        <v>1111.07371519692</v>
       </c>
       <c r="M24" t="n">
-        <v>1322.604988385743</v>
+        <v>1199.445653407644</v>
       </c>
       <c r="N24" t="n">
-        <v>1425.02289283604</v>
+        <v>1301.863557857941</v>
       </c>
       <c r="O24" t="n">
-        <v>2007.562487756521</v>
+        <v>1774.950830302598</v>
       </c>
       <c r="P24" t="n">
-        <v>2462.422752091069</v>
+        <v>2229.811094637148</v>
       </c>
       <c r="Q24" t="n">
         <v>2489.701643495571</v>
@@ -6156,10 +6156,10 @@
         <v>388.8886401977095</v>
       </c>
       <c r="M25" t="n">
-        <v>612.0159521042</v>
+        <v>612.0159521042001</v>
       </c>
       <c r="N25" t="n">
-        <v>833.0722527168773</v>
+        <v>833.0722527168774</v>
       </c>
       <c r="O25" t="n">
         <v>1026.334972010234</v>
@@ -6174,22 +6174,22 @@
         <v>1188.811186288522</v>
       </c>
       <c r="S25" t="n">
-        <v>1103.638847522391</v>
+        <v>987.0270523304305</v>
       </c>
       <c r="T25" t="n">
-        <v>1103.638847522391</v>
+        <v>987.0270523304305</v>
       </c>
       <c r="U25" t="n">
-        <v>816.4859339227216</v>
+        <v>699.8741387307612</v>
       </c>
       <c r="V25" t="n">
-        <v>816.4859339227216</v>
+        <v>439.1388342891838</v>
       </c>
       <c r="W25" t="n">
-        <v>530.3295324401207</v>
+        <v>152.9824328065829</v>
       </c>
       <c r="X25" t="n">
-        <v>299.0770683354965</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="Y25" t="n">
         <v>77.04190952777356</v>
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2298.10697990133</v>
+        <v>2486.516241057951</v>
       </c>
       <c r="C26" t="n">
-        <v>1916.173221234137</v>
+        <v>2104.582482390759</v>
       </c>
       <c r="D26" t="n">
-        <v>1543.349256461361</v>
+        <v>1731.758517617983</v>
       </c>
       <c r="E26" t="n">
-        <v>1148.563536567468</v>
+        <v>1336.972797724089</v>
       </c>
       <c r="F26" t="n">
-        <v>734.4123458776378</v>
+        <v>922.8216070342596</v>
       </c>
       <c r="G26" t="n">
-        <v>319.8339074625293</v>
+        <v>508.2431686191512</v>
       </c>
       <c r="H26" t="n">
-        <v>77.04190952777356</v>
+        <v>191.0454140100283</v>
       </c>
       <c r="I26" t="n">
         <v>77.04190952777356</v>
       </c>
       <c r="J26" t="n">
-        <v>275.9428125447807</v>
+        <v>275.9428125447808</v>
       </c>
       <c r="K26" t="n">
-        <v>706.2769243042308</v>
+        <v>706.2769243042306</v>
       </c>
       <c r="L26" t="n">
-        <v>1290.114449586124</v>
+        <v>1290.114449586123</v>
       </c>
       <c r="M26" t="n">
         <v>1945.895848270826</v>
       </c>
       <c r="N26" t="n">
-        <v>2591.017647190354</v>
+        <v>2591.017647190353</v>
       </c>
       <c r="O26" t="n">
         <v>3147.944879087887</v>
@@ -6253,25 +6253,25 @@
         <v>3852.095476388678</v>
       </c>
       <c r="S26" t="n">
-        <v>3852.095476388678</v>
+        <v>3699.629929047439</v>
       </c>
       <c r="T26" t="n">
-        <v>3634.414617061844</v>
+        <v>3481.949069720606</v>
       </c>
       <c r="U26" t="n">
-        <v>3379.651324626294</v>
+        <v>3481.949069720606</v>
       </c>
       <c r="V26" t="n">
-        <v>3042.672050522236</v>
+        <v>3481.949069720606</v>
       </c>
       <c r="W26" t="n">
-        <v>2680.137120379837</v>
+        <v>3481.949069720606</v>
       </c>
       <c r="X26" t="n">
-        <v>2298.10697990133</v>
+        <v>3274.101636000133</v>
       </c>
       <c r="Y26" t="n">
-        <v>2298.10697990133</v>
+        <v>2880.559780575971</v>
       </c>
     </row>
     <row r="27">
@@ -6305,10 +6305,10 @@
         <v>77.04190952777356</v>
       </c>
       <c r="J27" t="n">
-        <v>77.04190952777356</v>
+        <v>212.8782315607356</v>
       </c>
       <c r="K27" t="n">
-        <v>95.34767853381878</v>
+        <v>392.846041803318</v>
       </c>
       <c r="L27" t="n">
         <v>455.0974719927166</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>551.9681946917949</v>
+        <v>664.4678702353364</v>
       </c>
       <c r="C28" t="n">
-        <v>382.3522251534752</v>
+        <v>664.4678702353364</v>
       </c>
       <c r="D28" t="n">
-        <v>381.5315787406776</v>
+        <v>664.4678702353364</v>
       </c>
       <c r="E28" t="n">
-        <v>229.5225645019964</v>
+        <v>512.4588559966552</v>
       </c>
       <c r="F28" t="n">
-        <v>77.04190952777356</v>
+        <v>359.9782010224323</v>
       </c>
       <c r="G28" t="n">
-        <v>77.04190952777356</v>
+        <v>191.7427607628458</v>
       </c>
       <c r="H28" t="n">
-        <v>77.04190952777356</v>
+        <v>191.7427607628458</v>
       </c>
       <c r="I28" t="n">
         <v>77.04190952777356</v>
@@ -6393,10 +6393,10 @@
         <v>388.8886401977095</v>
       </c>
       <c r="M28" t="n">
-        <v>612.0159521042</v>
+        <v>612.0159521042001</v>
       </c>
       <c r="N28" t="n">
-        <v>833.0722527168773</v>
+        <v>833.0722527168774</v>
       </c>
       <c r="O28" t="n">
         <v>1026.334972010234</v>
@@ -6408,28 +6408,28 @@
         <v>1188.811186288522</v>
       </c>
       <c r="R28" t="n">
-        <v>1188.811186288522</v>
+        <v>1070.058397727439</v>
       </c>
       <c r="S28" t="n">
-        <v>1188.811186288522</v>
+        <v>1070.058397727439</v>
       </c>
       <c r="T28" t="n">
-        <v>1188.811186288522</v>
+        <v>1070.058397727439</v>
       </c>
       <c r="U28" t="n">
-        <v>1188.811186288522</v>
+        <v>1070.058397727439</v>
       </c>
       <c r="V28" t="n">
-        <v>1188.811186288522</v>
+        <v>1070.058397727439</v>
       </c>
       <c r="W28" t="n">
-        <v>1188.811186288522</v>
+        <v>1070.058397727439</v>
       </c>
       <c r="X28" t="n">
-        <v>957.5587221838977</v>
+        <v>1070.058397727439</v>
       </c>
       <c r="Y28" t="n">
-        <v>735.5235633761747</v>
+        <v>848.0232389197162</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1752.099577135929</v>
+        <v>2451.11209728853</v>
       </c>
       <c r="C29" t="n">
-        <v>1370.165818468736</v>
+        <v>2069.178338621337</v>
       </c>
       <c r="D29" t="n">
-        <v>997.3418536959598</v>
+        <v>1731.758517617983</v>
       </c>
       <c r="E29" t="n">
-        <v>602.5561338020666</v>
+        <v>1336.972797724089</v>
       </c>
       <c r="F29" t="n">
-        <v>188.4049431122369</v>
+        <v>922.8216070342596</v>
       </c>
       <c r="G29" t="n">
-        <v>188.4049431122369</v>
+        <v>508.2431686191512</v>
       </c>
       <c r="H29" t="n">
-        <v>188.4049431122369</v>
+        <v>191.0454140100283</v>
       </c>
       <c r="I29" t="n">
         <v>77.04190952777356</v>
       </c>
       <c r="J29" t="n">
-        <v>275.9428125447807</v>
+        <v>275.9428125447812</v>
       </c>
       <c r="K29" t="n">
-        <v>706.2769243042308</v>
+        <v>706.2769243042312</v>
       </c>
       <c r="L29" t="n">
-        <v>1290.114449586123</v>
+        <v>1290.114449586124</v>
       </c>
       <c r="M29" t="n">
-        <v>1945.895848270826</v>
+        <v>1945.895848270827</v>
       </c>
       <c r="N29" t="n">
-        <v>2591.017647190353</v>
+        <v>2591.017647190354</v>
       </c>
       <c r="O29" t="n">
-        <v>3147.944879087887</v>
+        <v>3147.944879087888</v>
       </c>
       <c r="P29" t="n">
-        <v>3591.111926684482</v>
+        <v>3591.111926684483</v>
       </c>
       <c r="Q29" t="n">
-        <v>3847.007849560113</v>
+        <v>3847.007849560114</v>
       </c>
       <c r="R29" t="n">
         <v>3852.095476388678</v>
@@ -6493,22 +6493,22 @@
         <v>3699.629929047439</v>
       </c>
       <c r="T29" t="n">
-        <v>3481.949069720605</v>
+        <v>3481.949069720606</v>
       </c>
       <c r="U29" t="n">
-        <v>3227.185777285055</v>
+        <v>3227.185777285056</v>
       </c>
       <c r="V29" t="n">
-        <v>2890.206503180997</v>
+        <v>3227.185777285056</v>
       </c>
       <c r="W29" t="n">
-        <v>2527.671573038598</v>
+        <v>3227.185777285056</v>
       </c>
       <c r="X29" t="n">
-        <v>2145.641432560091</v>
+        <v>2845.155636806549</v>
       </c>
       <c r="Y29" t="n">
-        <v>1752.099577135929</v>
+        <v>2845.155636806549</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>77.04190952777356</v>
       </c>
       <c r="J30" t="n">
-        <v>77.04190952777356</v>
+        <v>212.8782315607356</v>
       </c>
       <c r="K30" t="n">
-        <v>95.34767853381878</v>
+        <v>571.5507606019696</v>
       </c>
       <c r="L30" t="n">
-        <v>455.0974719927166</v>
+        <v>1001.621392721097</v>
       </c>
       <c r="M30" t="n">
-        <v>1142.83182724969</v>
+        <v>1089.99333093182</v>
       </c>
       <c r="N30" t="n">
-        <v>1862.16336748014</v>
+        <v>1192.411235382117</v>
       </c>
       <c r="O30" t="n">
-        <v>2444.702962400621</v>
+        <v>1774.950830302598</v>
       </c>
       <c r="P30" t="n">
-        <v>2489.701643495571</v>
+        <v>2229.811094637148</v>
       </c>
       <c r="Q30" t="n">
         <v>2489.701643495571</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>783.2206587964191</v>
+        <v>496.0366577509398</v>
       </c>
       <c r="C31" t="n">
-        <v>613.6046892580994</v>
+        <v>382.3394454565705</v>
       </c>
       <c r="D31" t="n">
-        <v>460.5327960858621</v>
+        <v>382.3394454565705</v>
       </c>
       <c r="E31" t="n">
-        <v>460.5327960858621</v>
+        <v>230.3304312178893</v>
       </c>
       <c r="F31" t="n">
-        <v>308.0521411116392</v>
+        <v>230.3304312178893</v>
       </c>
       <c r="G31" t="n">
-        <v>139.8167008520527</v>
+        <v>230.3304312178893</v>
       </c>
       <c r="H31" t="n">
         <v>77.04190952777356</v>
@@ -6630,10 +6630,10 @@
         <v>388.8886401977095</v>
       </c>
       <c r="M31" t="n">
-        <v>612.0159521042</v>
+        <v>612.0159521042001</v>
       </c>
       <c r="N31" t="n">
-        <v>833.0722527168773</v>
+        <v>833.0722527168774</v>
       </c>
       <c r="O31" t="n">
         <v>1026.334972010234</v>
@@ -6648,25 +6648,25 @@
         <v>1188.811186288522</v>
       </c>
       <c r="S31" t="n">
-        <v>1188.811186288522</v>
+        <v>987.0270523304305</v>
       </c>
       <c r="T31" t="n">
-        <v>1188.811186288522</v>
+        <v>756.7719621925172</v>
       </c>
       <c r="U31" t="n">
-        <v>1188.811186288522</v>
+        <v>756.7719621925172</v>
       </c>
       <c r="V31" t="n">
-        <v>1188.811186288522</v>
+        <v>496.0366577509398</v>
       </c>
       <c r="W31" t="n">
-        <v>1188.811186288522</v>
+        <v>496.0366577509398</v>
       </c>
       <c r="X31" t="n">
-        <v>1188.811186288522</v>
+        <v>496.0366577509398</v>
       </c>
       <c r="Y31" t="n">
-        <v>966.7760274807989</v>
+        <v>496.0366577509398</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2486.516241057951</v>
+        <v>1673.381223299381</v>
       </c>
       <c r="C32" t="n">
-        <v>2104.582482390759</v>
+        <v>1673.381223299381</v>
       </c>
       <c r="D32" t="n">
-        <v>1731.758517617983</v>
+        <v>1300.557258526605</v>
       </c>
       <c r="E32" t="n">
-        <v>1336.972797724089</v>
+        <v>905.7715386327117</v>
       </c>
       <c r="F32" t="n">
-        <v>922.8216070342596</v>
+        <v>491.620347942882</v>
       </c>
       <c r="G32" t="n">
-        <v>508.2431686191512</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="H32" t="n">
-        <v>191.0454140100283</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="I32" t="n">
-        <v>77.04190952777354</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="J32" t="n">
-        <v>275.9428125447807</v>
+        <v>275.9428125447812</v>
       </c>
       <c r="K32" t="n">
-        <v>706.2769243042305</v>
+        <v>706.2769243042312</v>
       </c>
       <c r="L32" t="n">
-        <v>1290.114449586123</v>
+        <v>1290.114449586124</v>
       </c>
       <c r="M32" t="n">
-        <v>1945.895848270825</v>
+        <v>1945.895848270827</v>
       </c>
       <c r="N32" t="n">
-        <v>2591.017647190353</v>
+        <v>2591.017647190354</v>
       </c>
       <c r="O32" t="n">
-        <v>3147.944879087886</v>
+        <v>3147.944879087888</v>
       </c>
       <c r="P32" t="n">
-        <v>3591.111926684482</v>
+        <v>3591.111926684483</v>
       </c>
       <c r="Q32" t="n">
-        <v>3847.007849560113</v>
+        <v>3847.007849560114</v>
       </c>
       <c r="R32" t="n">
-        <v>3852.095476388677</v>
+        <v>3852.095476388678</v>
       </c>
       <c r="S32" t="n">
-        <v>3852.095476388677</v>
+        <v>3699.629929047439</v>
       </c>
       <c r="T32" t="n">
-        <v>3852.095476388677</v>
+        <v>3481.949069720606</v>
       </c>
       <c r="U32" t="n">
-        <v>3852.095476388677</v>
+        <v>3227.185777285056</v>
       </c>
       <c r="V32" t="n">
-        <v>3852.095476388677</v>
+        <v>2890.206503180997</v>
       </c>
       <c r="W32" t="n">
-        <v>3656.131776478639</v>
+        <v>2842.996758720069</v>
       </c>
       <c r="X32" t="n">
-        <v>3274.101636000133</v>
+        <v>2460.966618241562</v>
       </c>
       <c r="Y32" t="n">
-        <v>2880.559780575971</v>
+        <v>2067.4247628174</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>117.3211876162671</v>
       </c>
       <c r="I33" t="n">
-        <v>77.04190952777354</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="J33" t="n">
-        <v>77.04190952777354</v>
+        <v>212.8782315607356</v>
       </c>
       <c r="K33" t="n">
-        <v>95.34767853381877</v>
+        <v>571.5507606019696</v>
       </c>
       <c r="L33" t="n">
-        <v>455.0974719927166</v>
+        <v>1111.07371519692</v>
       </c>
       <c r="M33" t="n">
-        <v>1142.83182724969</v>
+        <v>1199.445653407644</v>
       </c>
       <c r="N33" t="n">
-        <v>1862.16336748014</v>
+        <v>1301.863557857941</v>
       </c>
       <c r="O33" t="n">
-        <v>2444.702962400621</v>
+        <v>1774.950830302598</v>
       </c>
       <c r="P33" t="n">
-        <v>2489.701643495571</v>
+        <v>2229.811094637148</v>
       </c>
       <c r="Q33" t="n">
         <v>2489.701643495571</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2908.561639887516</v>
+        <v>704.2194414512346</v>
       </c>
       <c r="C34" t="n">
-        <v>2908.561639887516</v>
+        <v>534.6034719129149</v>
       </c>
       <c r="D34" t="n">
-        <v>2908.561639887516</v>
+        <v>381.5315787406776</v>
       </c>
       <c r="E34" t="n">
-        <v>2908.561639887516</v>
+        <v>229.5225645019964</v>
       </c>
       <c r="F34" t="n">
-        <v>2908.561639887516</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="G34" t="n">
-        <v>2740.326199627929</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="H34" t="n">
-        <v>2740.326199627929</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="I34" t="n">
-        <v>2740.326199627929</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="J34" t="n">
-        <v>2740.326199627929</v>
+        <v>77.04190952777356</v>
       </c>
       <c r="K34" t="n">
-        <v>2851.852444894709</v>
+        <v>188.5681547945534</v>
       </c>
       <c r="L34" t="n">
-        <v>3052.172930297865</v>
+        <v>388.8886401977095</v>
       </c>
       <c r="M34" t="n">
-        <v>3275.300242204356</v>
+        <v>612.0159521042001</v>
       </c>
       <c r="N34" t="n">
-        <v>3496.356542817033</v>
+        <v>833.0722527168774</v>
       </c>
       <c r="O34" t="n">
-        <v>3689.619262110389</v>
+        <v>1026.334972010234</v>
       </c>
       <c r="P34" t="n">
-        <v>3833.704729662823</v>
+        <v>1170.420439562667</v>
       </c>
       <c r="Q34" t="n">
-        <v>3852.095476388677</v>
+        <v>1188.811186288522</v>
       </c>
       <c r="R34" t="n">
-        <v>3852.095476388677</v>
+        <v>1188.811186288522</v>
       </c>
       <c r="S34" t="n">
-        <v>3650.311342430586</v>
+        <v>1188.811186288522</v>
       </c>
       <c r="T34" t="n">
-        <v>3420.056252292673</v>
+        <v>1188.811186288522</v>
       </c>
       <c r="U34" t="n">
-        <v>3420.056252292673</v>
+        <v>901.6582726888525</v>
       </c>
       <c r="V34" t="n">
-        <v>3314.152167379619</v>
+        <v>901.6582726888525</v>
       </c>
       <c r="W34" t="n">
-        <v>3314.152167379619</v>
+        <v>887.7748101356144</v>
       </c>
       <c r="X34" t="n">
-        <v>3314.152167379619</v>
+        <v>887.7748101356144</v>
       </c>
       <c r="Y34" t="n">
-        <v>3092.117008571896</v>
+        <v>887.7748101356144</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1292.282152301555</v>
+        <v>1119.652159349169</v>
       </c>
       <c r="C35" t="n">
-        <v>910.3483936343625</v>
+        <v>737.7184006819764</v>
       </c>
       <c r="D35" t="n">
-        <v>910.3483936343625</v>
+        <v>444.023673648338</v>
       </c>
       <c r="E35" t="n">
-        <v>910.3483936343625</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="F35" t="n">
-        <v>496.1972029445329</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="G35" t="n">
-        <v>81.61876452942442</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="H35" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="I35" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="J35" t="n">
-        <v>49.23795375444486</v>
+        <v>248.138856771452</v>
       </c>
       <c r="K35" t="n">
-        <v>73.48146494040952</v>
+        <v>678.4729685309019</v>
       </c>
       <c r="L35" t="n">
-        <v>657.3189902223022</v>
+        <v>1041.306070243187</v>
       </c>
       <c r="M35" t="n">
-        <v>1266.638667933557</v>
+        <v>1118.563551322614</v>
       </c>
       <c r="N35" t="n">
-        <v>1875.958345644813</v>
+        <v>1200.819858523918</v>
       </c>
       <c r="O35" t="n">
-        <v>2432.885577542346</v>
+        <v>1757.747090421452</v>
       </c>
       <c r="P35" t="n">
-        <v>2461.897687722243</v>
+        <v>2200.914138018047</v>
       </c>
       <c r="Q35" t="n">
-        <v>2461.897687722243</v>
+        <v>2456.810060893678</v>
       </c>
       <c r="R35" t="n">
         <v>2461.897687722243</v>
@@ -6967,22 +6967,22 @@
         <v>2461.897687722243</v>
       </c>
       <c r="T35" t="n">
-        <v>2461.897687722243</v>
+        <v>2244.216828395409</v>
       </c>
       <c r="U35" t="n">
-        <v>2461.897687722243</v>
+        <v>2244.216828395409</v>
       </c>
       <c r="V35" t="n">
-        <v>2461.897687722243</v>
+        <v>1907.23755429135</v>
       </c>
       <c r="W35" t="n">
-        <v>2461.897687722243</v>
+        <v>1907.23755429135</v>
       </c>
       <c r="X35" t="n">
-        <v>2079.867547243736</v>
+        <v>1907.23755429135</v>
       </c>
       <c r="Y35" t="n">
-        <v>1686.325691819574</v>
+        <v>1513.695698867188</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>891.7483047996158</v>
+        <v>891.7483047996159</v>
       </c>
       <c r="C36" t="n">
-        <v>730.0446320405705</v>
+        <v>730.0446320405698</v>
       </c>
       <c r="D36" t="n">
-        <v>591.2059950307826</v>
+        <v>591.2059950307819</v>
       </c>
       <c r="E36" t="n">
         <v>444.177985087653</v>
@@ -7010,31 +7010,31 @@
         <v>181.5719272705559</v>
       </c>
       <c r="H36" t="n">
-        <v>89.51723184293841</v>
+        <v>89.5172318429384</v>
       </c>
       <c r="I36" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="J36" t="n">
         <v>185.0742757874069</v>
       </c>
       <c r="K36" t="n">
-        <v>203.3800447934522</v>
+        <v>543.7468048286408</v>
       </c>
       <c r="L36" t="n">
-        <v>742.9029993884026</v>
+        <v>1083.269759423591</v>
       </c>
       <c r="M36" t="n">
-        <v>831.274937599126</v>
+        <v>1171.641697634315</v>
       </c>
       <c r="N36" t="n">
-        <v>1424.497828467213</v>
+        <v>1274.059602084612</v>
       </c>
       <c r="O36" t="n">
-        <v>2007.037423387694</v>
+        <v>1747.14687452927</v>
       </c>
       <c r="P36" t="n">
-        <v>2461.897687722243</v>
+        <v>2202.007138863819</v>
       </c>
       <c r="Q36" t="n">
         <v>2461.897687722243</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>49.23795375444486</v>
+        <v>326.9626109913456</v>
       </c>
       <c r="C37" t="n">
-        <v>49.23795375444486</v>
+        <v>326.9626109913456</v>
       </c>
       <c r="D37" t="n">
-        <v>49.23795375444486</v>
+        <v>326.9626109913456</v>
       </c>
       <c r="E37" t="n">
-        <v>49.23795375444486</v>
+        <v>326.9626109913456</v>
       </c>
       <c r="F37" t="n">
-        <v>49.23795375444486</v>
+        <v>326.9626109913456</v>
       </c>
       <c r="G37" t="n">
-        <v>49.23795375444486</v>
+        <v>202.5264754445606</v>
       </c>
       <c r="H37" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="I37" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="J37" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="K37" t="n">
         <v>160.7641990212247</v>
@@ -7122,25 +7122,25 @@
         <v>1161.007230515193</v>
       </c>
       <c r="S37" t="n">
-        <v>959.2230965571018</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="T37" t="n">
-        <v>959.2230965571018</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="U37" t="n">
-        <v>672.0701829574325</v>
+        <v>873.8543169155239</v>
       </c>
       <c r="V37" t="n">
-        <v>672.0701829574325</v>
+        <v>613.1190124739464</v>
       </c>
       <c r="W37" t="n">
-        <v>502.5255766667921</v>
+        <v>326.9626109913456</v>
       </c>
       <c r="X37" t="n">
-        <v>271.2731125621678</v>
+        <v>326.9626109913456</v>
       </c>
       <c r="Y37" t="n">
-        <v>49.23795375444486</v>
+        <v>326.9626109913456</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>917.9991816766687</v>
+        <v>1195.165337468506</v>
       </c>
       <c r="C38" t="n">
-        <v>536.065423009476</v>
+        <v>1195.165337468506</v>
       </c>
       <c r="D38" t="n">
-        <v>163.2414582366997</v>
+        <v>1195.165337468506</v>
       </c>
       <c r="E38" t="n">
-        <v>163.2414582366997</v>
+        <v>1195.165337468506</v>
       </c>
       <c r="F38" t="n">
-        <v>163.2414582366997</v>
+        <v>781.0141467786761</v>
       </c>
       <c r="G38" t="n">
-        <v>163.2414582366997</v>
+        <v>366.4357083635677</v>
       </c>
       <c r="H38" t="n">
-        <v>163.2414582366997</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="I38" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="J38" t="n">
         <v>248.138856771452</v>
@@ -7183,19 +7183,19 @@
         <v>724.7805106863648</v>
       </c>
       <c r="M38" t="n">
-        <v>802.0379917657921</v>
+        <v>802.0379917657922</v>
       </c>
       <c r="N38" t="n">
-        <v>1200.819858523919</v>
+        <v>1205.907485352483</v>
       </c>
       <c r="O38" t="n">
-        <v>1757.747090421452</v>
+        <v>1762.834717250016</v>
       </c>
       <c r="P38" t="n">
-        <v>2200.914138018048</v>
+        <v>2206.001764846611</v>
       </c>
       <c r="Q38" t="n">
-        <v>2456.810060893679</v>
+        <v>2461.897687722243</v>
       </c>
       <c r="R38" t="n">
         <v>2461.897687722243</v>
@@ -7204,22 +7204,22 @@
         <v>2461.897687722243</v>
       </c>
       <c r="T38" t="n">
-        <v>2461.897687722243</v>
+        <v>2244.216828395409</v>
       </c>
       <c r="U38" t="n">
-        <v>2450.149647239756</v>
+        <v>2244.216828395409</v>
       </c>
       <c r="V38" t="n">
-        <v>2450.149647239756</v>
+        <v>1907.23755429135</v>
       </c>
       <c r="W38" t="n">
-        <v>2087.614717097357</v>
+        <v>1577.195477947012</v>
       </c>
       <c r="X38" t="n">
-        <v>1705.58457661885</v>
+        <v>1195.165337468506</v>
       </c>
       <c r="Y38" t="n">
-        <v>1312.042721194688</v>
+        <v>1195.165337468506</v>
       </c>
     </row>
     <row r="39">
@@ -7232,7 +7232,7 @@
         <v>891.7483047996151</v>
       </c>
       <c r="C39" t="n">
-        <v>730.0446320405698</v>
+        <v>730.0446320405699</v>
       </c>
       <c r="D39" t="n">
         <v>591.2059950307819</v>
@@ -7247,34 +7247,34 @@
         <v>181.5719272705559</v>
       </c>
       <c r="H39" t="n">
-        <v>89.5172318429384</v>
+        <v>89.51723184293841</v>
       </c>
       <c r="I39" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="J39" t="n">
-        <v>185.0742757874069</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="K39" t="n">
-        <v>203.3800447934522</v>
+        <v>407.9104827956788</v>
       </c>
       <c r="L39" t="n">
-        <v>742.9029993884026</v>
+        <v>947.4334373906293</v>
       </c>
       <c r="M39" t="n">
-        <v>1322.079924016915</v>
+        <v>1556.753115101884</v>
       </c>
       <c r="N39" t="n">
-        <v>1424.497828467212</v>
+        <v>1671.50808451794</v>
       </c>
       <c r="O39" t="n">
-        <v>2007.037423387693</v>
+        <v>1747.14687452927</v>
       </c>
       <c r="P39" t="n">
-        <v>2461.897687722242</v>
+        <v>2202.007138863819</v>
       </c>
       <c r="Q39" t="n">
-        <v>2461.897687722242</v>
+        <v>2461.897687722243</v>
       </c>
       <c r="R39" t="n">
         <v>2452.791911839708</v>
@@ -7286,13 +7286,13 @@
         <v>2129.758645759749</v>
       </c>
       <c r="U39" t="n">
-        <v>1911.317553371858</v>
+        <v>1911.317553371859</v>
       </c>
       <c r="V39" t="n">
-        <v>1682.921930820192</v>
+        <v>1682.921930820193</v>
       </c>
       <c r="W39" t="n">
-        <v>1441.606062053502</v>
+        <v>1441.606062053503</v>
       </c>
       <c r="X39" t="n">
         <v>1243.689073931297</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="C40" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="D40" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="E40" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="F40" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="G40" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="H40" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="I40" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="J40" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="K40" t="n">
         <v>160.7641990212247</v>
@@ -7359,13 +7359,13 @@
         <v>1161.007230515193</v>
       </c>
       <c r="S40" t="n">
-        <v>959.2230965571018</v>
+        <v>1114.535037382917</v>
       </c>
       <c r="T40" t="n">
-        <v>728.9680064191886</v>
+        <v>1114.535037382917</v>
       </c>
       <c r="U40" t="n">
-        <v>728.9680064191886</v>
+        <v>827.3821237832474</v>
       </c>
       <c r="V40" t="n">
         <v>566.6468193416699</v>
@@ -7374,10 +7374,10 @@
         <v>280.4904178590691</v>
       </c>
       <c r="X40" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="Y40" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1074.601292974721</v>
+        <v>853.2631776185989</v>
       </c>
       <c r="C41" t="n">
-        <v>692.6675343075287</v>
+        <v>853.2631776185989</v>
       </c>
       <c r="D41" t="n">
-        <v>319.8435695347523</v>
+        <v>480.4392128458225</v>
       </c>
       <c r="E41" t="n">
-        <v>49.23795375444486</v>
+        <v>480.4392128458225</v>
       </c>
       <c r="F41" t="n">
-        <v>49.23795375444486</v>
+        <v>480.4392128458225</v>
       </c>
       <c r="G41" t="n">
-        <v>49.23795375444486</v>
+        <v>480.4392128458225</v>
       </c>
       <c r="H41" t="n">
-        <v>49.23795375444486</v>
+        <v>163.2414582366996</v>
       </c>
       <c r="I41" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="J41" t="n">
         <v>248.138856771452</v>
@@ -7420,43 +7420,43 @@
         <v>724.7805106863648</v>
       </c>
       <c r="M41" t="n">
-        <v>802.0379917657921</v>
+        <v>802.0379917657922</v>
       </c>
       <c r="N41" t="n">
-        <v>1205.907485352483</v>
+        <v>1200.819858523918</v>
       </c>
       <c r="O41" t="n">
-        <v>1762.834717250016</v>
+        <v>1757.747090421451</v>
       </c>
       <c r="P41" t="n">
-        <v>2206.001764846612</v>
+        <v>2200.914138018047</v>
       </c>
       <c r="Q41" t="n">
-        <v>2461.897687722243</v>
+        <v>2456.810060893678</v>
       </c>
       <c r="R41" t="n">
-        <v>2461.897687722243</v>
+        <v>2461.897687722242</v>
       </c>
       <c r="S41" t="n">
-        <v>2461.897687722243</v>
+        <v>2309.432140381004</v>
       </c>
       <c r="T41" t="n">
-        <v>2244.216828395409</v>
+        <v>2091.75128105417</v>
       </c>
       <c r="U41" t="n">
-        <v>2244.216828395409</v>
+        <v>1836.98798861862</v>
       </c>
       <c r="V41" t="n">
-        <v>2244.216828395409</v>
+        <v>1836.98798861862</v>
       </c>
       <c r="W41" t="n">
-        <v>2244.216828395409</v>
+        <v>1836.98798861862</v>
       </c>
       <c r="X41" t="n">
-        <v>1862.186687916903</v>
+        <v>1454.957848140114</v>
       </c>
       <c r="Y41" t="n">
-        <v>1468.644832492741</v>
+        <v>1247.306717136618</v>
       </c>
     </row>
     <row r="42">
@@ -7466,61 +7466,61 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>891.7483047996155</v>
+        <v>891.7483047996151</v>
       </c>
       <c r="C42" t="n">
-        <v>730.0446320405703</v>
+        <v>730.0446320405699</v>
       </c>
       <c r="D42" t="n">
-        <v>591.2059950307823</v>
+        <v>591.2059950307819</v>
       </c>
       <c r="E42" t="n">
-        <v>444.1779850876535</v>
+        <v>444.177985087653</v>
       </c>
       <c r="F42" t="n">
-        <v>309.4841870375278</v>
+        <v>309.4841870375274</v>
       </c>
       <c r="G42" t="n">
-        <v>181.571927270556</v>
+        <v>181.5719272705559</v>
       </c>
       <c r="H42" t="n">
-        <v>89.5172318429386</v>
+        <v>89.51723184293837</v>
       </c>
       <c r="I42" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="J42" t="n">
-        <v>49.23795375444486</v>
+        <v>185.0742757874069</v>
       </c>
       <c r="K42" t="n">
-        <v>67.54372276049008</v>
+        <v>543.7468048286408</v>
       </c>
       <c r="L42" t="n">
-        <v>607.0666773554406</v>
+        <v>959.770502356388</v>
       </c>
       <c r="M42" t="n">
-        <v>1062.189375158493</v>
+        <v>1569.090180067643</v>
       </c>
       <c r="N42" t="n">
-        <v>1164.60727960879</v>
+        <v>1671.50808451794</v>
       </c>
       <c r="O42" t="n">
-        <v>1747.146874529271</v>
+        <v>1747.14687452927</v>
       </c>
       <c r="P42" t="n">
-        <v>2202.00713886382</v>
+        <v>2202.007138863819</v>
       </c>
       <c r="Q42" t="n">
-        <v>2461.897687722243</v>
+        <v>2461.897687722242</v>
       </c>
       <c r="R42" t="n">
-        <v>2452.791911839709</v>
+        <v>2452.791911839708</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.15372874835</v>
+        <v>2315.153728748349</v>
       </c>
       <c r="T42" t="n">
-        <v>2129.75864575975</v>
+        <v>2129.758645759749</v>
       </c>
       <c r="U42" t="n">
         <v>1911.317553371859</v>
@@ -7532,7 +7532,7 @@
         <v>1441.606062053503</v>
       </c>
       <c r="X42" t="n">
-        <v>1243.689073931298</v>
+        <v>1243.689073931297</v>
       </c>
       <c r="Y42" t="n">
         <v>1051.167747580876</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="C43" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="D43" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="E43" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="F43" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="G43" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="H43" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="I43" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="J43" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
       <c r="K43" t="n">
         <v>160.7641990212247</v>
@@ -7593,28 +7593,28 @@
         <v>1161.007230515193</v>
       </c>
       <c r="R43" t="n">
-        <v>1042.25444195411</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="S43" t="n">
-        <v>840.4703079960191</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="T43" t="n">
-        <v>610.2152178581058</v>
+        <v>930.7521403772799</v>
       </c>
       <c r="U43" t="n">
-        <v>323.0623042584364</v>
+        <v>930.7521403772799</v>
       </c>
       <c r="V43" t="n">
-        <v>62.32699981685903</v>
+        <v>670.0168359357026</v>
       </c>
       <c r="W43" t="n">
-        <v>49.23795375444486</v>
+        <v>383.8604344531017</v>
       </c>
       <c r="X43" t="n">
-        <v>49.23795375444486</v>
+        <v>152.6079703484775</v>
       </c>
       <c r="Y43" t="n">
-        <v>49.23795375444486</v>
+        <v>49.23795375444485</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1276.951409928123</v>
+        <v>953.1426709152461</v>
       </c>
       <c r="C44" t="n">
-        <v>895.017651260931</v>
+        <v>953.1426709152461</v>
       </c>
       <c r="D44" t="n">
-        <v>895.017651260931</v>
+        <v>953.1426709152461</v>
       </c>
       <c r="E44" t="n">
-        <v>895.017651260931</v>
+        <v>558.3569510213529</v>
       </c>
       <c r="F44" t="n">
-        <v>895.017651260931</v>
+        <v>558.3569510213529</v>
       </c>
       <c r="G44" t="n">
-        <v>480.4392128458225</v>
+        <v>366.4357083635677</v>
       </c>
       <c r="H44" t="n">
-        <v>163.2414582366997</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="I44" t="n">
         <v>49.23795375444486</v>
       </c>
       <c r="J44" t="n">
-        <v>49.23795375444486</v>
+        <v>248.138856771452</v>
       </c>
       <c r="K44" t="n">
-        <v>68.3938381118453</v>
+        <v>678.4729685309019</v>
       </c>
       <c r="L44" t="n">
-        <v>652.231363393738</v>
+        <v>724.7805106863648</v>
       </c>
       <c r="M44" t="n">
-        <v>1261.551041104993</v>
+        <v>802.0379917657922</v>
       </c>
       <c r="N44" t="n">
-        <v>1870.870718816248</v>
+        <v>1205.907485352483</v>
       </c>
       <c r="O44" t="n">
-        <v>2427.797950713782</v>
+        <v>1762.834717250016</v>
       </c>
       <c r="P44" t="n">
-        <v>2456.810060893679</v>
+        <v>2206.001764846612</v>
       </c>
       <c r="Q44" t="n">
-        <v>2456.810060893679</v>
+        <v>2461.897687722243</v>
       </c>
       <c r="R44" t="n">
         <v>2461.897687722243</v>
       </c>
       <c r="S44" t="n">
-        <v>2461.897687722243</v>
+        <v>2309.432140381005</v>
       </c>
       <c r="T44" t="n">
-        <v>2461.897687722243</v>
+        <v>2091.751281054171</v>
       </c>
       <c r="U44" t="n">
-        <v>2461.897687722243</v>
+        <v>2091.751281054171</v>
       </c>
       <c r="V44" t="n">
-        <v>2461.897687722243</v>
+        <v>2091.751281054171</v>
       </c>
       <c r="W44" t="n">
-        <v>2099.362757579844</v>
+        <v>1729.216350911772</v>
       </c>
       <c r="X44" t="n">
-        <v>1717.332617101338</v>
+        <v>1347.186210433265</v>
       </c>
       <c r="Y44" t="n">
-        <v>1670.994949446142</v>
+        <v>1347.186210433265</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>891.7483047996151</v>
       </c>
       <c r="C45" t="n">
-        <v>730.0446320405698</v>
+        <v>730.0446320405699</v>
       </c>
       <c r="D45" t="n">
         <v>591.2059950307819</v>
@@ -7730,22 +7730,22 @@
         <v>185.0742757874069</v>
       </c>
       <c r="K45" t="n">
-        <v>543.7468048286407</v>
+        <v>543.7468048286408</v>
       </c>
       <c r="L45" t="n">
-        <v>615.7200562843019</v>
+        <v>605.9982350180394</v>
       </c>
       <c r="M45" t="n">
-        <v>1225.039733995557</v>
+        <v>694.3701732287628</v>
       </c>
       <c r="N45" t="n">
-        <v>1834.359411706812</v>
+        <v>1164.60727960879</v>
       </c>
       <c r="O45" t="n">
-        <v>2416.899006627293</v>
+        <v>1747.146874529271</v>
       </c>
       <c r="P45" t="n">
-        <v>2461.897687722243</v>
+        <v>2202.00713886382</v>
       </c>
       <c r="Q45" t="n">
         <v>2461.897687722243</v>
@@ -7754,19 +7754,19 @@
         <v>2452.791911839709</v>
       </c>
       <c r="S45" t="n">
-        <v>2315.15372874835</v>
+        <v>2315.153728748349</v>
       </c>
       <c r="T45" t="n">
         <v>2129.758645759749</v>
       </c>
       <c r="U45" t="n">
-        <v>1911.317553371858</v>
+        <v>1911.317553371859</v>
       </c>
       <c r="V45" t="n">
-        <v>1682.921930820192</v>
+        <v>1682.921930820193</v>
       </c>
       <c r="W45" t="n">
-        <v>1441.606062053502</v>
+        <v>1441.606062053503</v>
       </c>
       <c r="X45" t="n">
         <v>1243.689073931297</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2146.349249860436</v>
+        <v>497.7155423145643</v>
       </c>
       <c r="C46" t="n">
-        <v>1976.733280322116</v>
+        <v>497.7155423145643</v>
       </c>
       <c r="D46" t="n">
-        <v>1823.661387149878</v>
+        <v>344.643649142327</v>
       </c>
       <c r="E46" t="n">
-        <v>1671.652372911197</v>
+        <v>192.6346349036459</v>
       </c>
       <c r="F46" t="n">
-        <v>1671.652372911197</v>
+        <v>60.91459040002945</v>
       </c>
       <c r="G46" t="n">
-        <v>1503.416932651611</v>
+        <v>60.91459040002945</v>
       </c>
       <c r="H46" t="n">
-        <v>1350.128410961495</v>
+        <v>60.91459040002945</v>
       </c>
       <c r="I46" t="n">
-        <v>1350.128410961495</v>
+        <v>60.91459040002945</v>
       </c>
       <c r="J46" t="n">
-        <v>1350.128410961495</v>
+        <v>49.23795375444486</v>
       </c>
       <c r="K46" t="n">
-        <v>1461.654656228275</v>
+        <v>160.7641990212247</v>
       </c>
       <c r="L46" t="n">
-        <v>1661.975141631431</v>
+        <v>361.0846844243808</v>
       </c>
       <c r="M46" t="n">
-        <v>1885.102453537922</v>
+        <v>584.2119963308713</v>
       </c>
       <c r="N46" t="n">
-        <v>2106.158754150599</v>
+        <v>805.2682969435486</v>
       </c>
       <c r="O46" t="n">
-        <v>2299.421473443955</v>
+        <v>998.5310162369049</v>
       </c>
       <c r="P46" t="n">
-        <v>2443.506940996388</v>
+        <v>1142.616483789339</v>
       </c>
       <c r="Q46" t="n">
-        <v>2461.897687722243</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="R46" t="n">
-        <v>2461.897687722243</v>
+        <v>1161.007230515193</v>
       </c>
       <c r="S46" t="n">
-        <v>2461.897687722243</v>
+        <v>959.2230965571018</v>
       </c>
       <c r="T46" t="n">
-        <v>2231.64259758433</v>
+        <v>728.9680064191886</v>
       </c>
       <c r="U46" t="n">
-        <v>2231.64259758433</v>
+        <v>728.9680064191886</v>
       </c>
       <c r="V46" t="n">
-        <v>2231.64259758433</v>
+        <v>728.9680064191886</v>
       </c>
       <c r="W46" t="n">
-        <v>2231.64259758433</v>
+        <v>728.9680064191886</v>
       </c>
       <c r="X46" t="n">
-        <v>2231.64259758433</v>
+        <v>497.7155423145643</v>
       </c>
       <c r="Y46" t="n">
-        <v>2231.64259758433</v>
+        <v>497.7155423145643</v>
       </c>
     </row>
   </sheetData>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>18.91559667621394</v>
+        <v>18.91559667621391</v>
       </c>
       <c r="K11" t="n">
-        <v>6.057493512161269</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>542.9595789155856</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>537.4365622543716</v>
+        <v>411.7228851607488</v>
       </c>
       <c r="N11" t="n">
         <v>532.3872429393447</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>17.52875768047079</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
-        <v>85.43134583487716</v>
+        <v>80.29232883632758</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,25 +8768,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>26.7099398486304</v>
+        <v>26.70993984863038</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>258.2470740721175</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>526.2098378793249</v>
       </c>
       <c r="N12" t="n">
-        <v>370.4553127195239</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>18.91559667621394</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>421.3890363425141</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>537.4365622543716</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>532.3872429393447</v>
+        <v>532.3872429393446</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>165.9442545588364</v>
       </c>
       <c r="P14" t="n">
-        <v>79.70869281121571</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>17.52875768047079</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
-        <v>85.43134583487716</v>
+        <v>80.29232883632758</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>26.7099398486304</v>
+        <v>26.70993984863038</v>
       </c>
       <c r="K15" t="n">
-        <v>106.7611807577983</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>526.2098378793249</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>26.65050460317158</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9026,7 +9026,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.58476813900474</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>18.91559667621394</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>542.9595789155856</v>
+        <v>319.7227874311334</v>
       </c>
       <c r="M17" t="n">
-        <v>537.4365622543716</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>532.3872429393447</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>6.057493512161159</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>17.52875768047079</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9242,28 +9242,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>26.7099398486304</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>526.2098378793249</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>512.0219931928871</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>512.0210150597484</v>
+        <v>401.4631135690185</v>
       </c>
       <c r="P18" t="n">
-        <v>8.740786796829752</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.58476813900474</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>18.91559667621394</v>
+        <v>18.91559667621391</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425141</v>
+        <v>6.057493512161134</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>537.4365622543716</v>
+        <v>537.4365622543714</v>
       </c>
       <c r="N20" t="n">
-        <v>532.3872429393447</v>
+        <v>532.3872429393444</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
-        <v>79.70869281121571</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>17.52875768047079</v>
+        <v>17.52875768047076</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9479,28 +9479,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>26.7099398486304</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>120.9490254442362</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>526.2098378793248</v>
       </c>
       <c r="N21" t="n">
-        <v>512.0219931928871</v>
+        <v>512.021993192887</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>414.0015992319183</v>
+        <v>91.10912367982606</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.58476813900474</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9661,7 +9661,7 @@
         <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
-        <v>85.43134583487777</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>26.7099398486304</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>512.0210150597484</v>
+        <v>401.463113569018</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>38.1392039011273</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9953,13 +9953,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>26.7099398486304</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>163.2949911480173</v>
       </c>
       <c r="L27" t="n">
-        <v>300.5033972419184</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>10.58476813900474</v>
+        <v>10.58476813900472</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10190,28 +10190,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>26.7099398486304</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>300.5033972419184</v>
+        <v>371.5345474037664</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>10.58476813900474</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10427,28 +10427,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>26.7099398486304</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>300.5033972419184</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>401.463113569018</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>10.58476813900474</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>18.91559667621394</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
-        <v>11.19651051071099</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L35" t="n">
-        <v>542.9595789155856</v>
+        <v>319.7227874311334</v>
       </c>
       <c r="M35" t="n">
-        <v>537.4365622543716</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>532.3872429393447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>17.52875768047079</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
-        <v>80.2923288363276</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10676,16 +10676,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>495.7626125432222</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>512.0210150597484</v>
+        <v>401.4631135690185</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>10.58476813900474</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>319.7227874311342</v>
+        <v>324.8618044296832</v>
       </c>
       <c r="O38" t="n">
         <v>495.0402356415689</v>
@@ -10846,7 +10846,7 @@
         <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
-        <v>85.43134583487716</v>
+        <v>80.29232883632758</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>26.70993984863038</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>495.7626125432208</v>
+        <v>526.2098378793248</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>12.46168178359488</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>10.58476813900474</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>324.8618044296839</v>
+        <v>319.722787431133</v>
       </c>
       <c r="O41" t="n">
         <v>495.0402356415689</v>
@@ -11083,7 +11083,7 @@
         <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
-        <v>80.2923288363276</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,22 +11138,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>26.7099398486304</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>482.0924488944969</v>
+        <v>357.3457245841904</v>
       </c>
       <c r="M42" t="n">
-        <v>370.455312719524</v>
+        <v>526.2098378793247</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>18.91559667621394</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>6.057493512161269</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>542.9595789155856</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>537.4365622543716</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>532.3872429393447</v>
+        <v>324.8618044296837</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>17.52875768047079</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
-        <v>85.43134583487716</v>
+        <v>80.29232883632758</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,22 +11381,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>9.820021481073354</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>526.2098378793249</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>512.0219931928871</v>
+        <v>371.5345474037675</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>10.58476813900474</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.103104122839</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.086086272163</v>
+        <v>46.4158898065499</v>
       </c>
       <c r="I11" t="n">
-        <v>112.8634694374322</v>
+        <v>112.8634694374323</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>150.9408918678262</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>215.5040507335656</v>
+        <v>215.5040507335657</v>
       </c>
       <c r="U11" t="n">
         <v>252.2156595111942</v>
@@ -23326,7 +23326,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
         <v>151.5411742405149</v>
@@ -23427,10 +23427,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
-        <v>116.8267442822634</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>153.2829073332377</v>
       </c>
       <c r="H13" t="n">
         <v>151.7556364732146</v>
@@ -23439,7 +23439,7 @@
         <v>122.3877850853864</v>
       </c>
       <c r="J13" t="n">
-        <v>11.55987027912875</v>
+        <v>11.55987027912874</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>117.5652606754719</v>
       </c>
       <c r="S13" t="n">
-        <v>199.7662926185104</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9525392365341</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>284.2813844636727</v>
       </c>
       <c r="V13" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.4326540309573</v>
       </c>
       <c r="H14" t="n">
         <v>314.0257770630316</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>150.9408918678262</v>
+        <v>150.9408918678261</v>
       </c>
       <c r="T14" t="n">
         <v>215.5040507335656</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>252.2156595111942</v>
       </c>
       <c r="V14" t="n">
-        <v>176.3884756985774</v>
+        <v>209.1154518479233</v>
       </c>
       <c r="W14" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
         <v>166.5530858569906</v>
@@ -23673,10 +23673,10 @@
         <v>151.7556364732146</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>122.3877850853864</v>
       </c>
       <c r="J16" t="n">
-        <v>11.55987027912875</v>
+        <v>11.55987027912874</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>117.5652606754719</v>
       </c>
       <c r="S16" t="n">
-        <v>199.7662926185104</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9525392365341</v>
+        <v>97.42997619041824</v>
       </c>
       <c r="U16" t="n">
         <v>284.2813844636727</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>30.06367169340584</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>358.7808600277245</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>314.0257770630316</v>
       </c>
       <c r="I17" t="n">
-        <v>112.8634694374322</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>150.9408918678262</v>
+        <v>150.9408918678261</v>
       </c>
       <c r="T17" t="n">
-        <v>215.5040507335656</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>252.2156595111942</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>242.6914638375925</v>
       </c>
       <c r="W17" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5530858569906</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>151.7556364732146</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>122.3877850853864</v>
       </c>
       <c r="J19" t="n">
-        <v>11.55987027912875</v>
+        <v>11.55987027912874</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>199.7662926185104</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>227.9525392365341</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>284.2813844636727</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
-        <v>181.9450680355805</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.8148072196457</v>
+        <v>88.55634291795766</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>358.7808600277245</v>
+        <v>410.4326540309573</v>
       </c>
       <c r="H20" t="n">
-        <v>314.0257770630316</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>112.8634694374322</v>
+        <v>95.18448892771048</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>150.9408918678262</v>
+        <v>150.9408918678261</v>
       </c>
       <c r="T20" t="n">
-        <v>215.5040507335656</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>252.2156595111942</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
-        <v>62.56327963628779</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -24141,16 +24141,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5530858569906</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>151.7556364732146</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>122.3877850853864</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.55987027912875</v>
+        <v>11.55987027912874</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>155.4983723400775</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>284.2813844636727</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>209.9104493835721</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>71.62575279259107</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>314.0257770630316</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>112.8634694374322</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>150.9408918678262</v>
+        <v>150.9408918678261</v>
       </c>
       <c r="T23" t="n">
-        <v>215.5040507335656</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2156595111942</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>122.3877850853864</v>
       </c>
       <c r="J25" t="n">
-        <v>11.55987027912875</v>
+        <v>11.55987027912874</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>117.5652606754719</v>
       </c>
       <c r="S25" t="n">
-        <v>115.4456772400409</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>227.9525392365341</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>153.7588214175568</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>73.66169910762339</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>112.8634694374322</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>150.9408918678262</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.2156595111942</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>172.4408796904534</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>150.7287342918453</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,16 +24615,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5530858569906</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>151.7556364732146</v>
       </c>
       <c r="I28" t="n">
-        <v>122.3877850853864</v>
+        <v>8.833942362664786</v>
       </c>
       <c r="J28" t="n">
-        <v>11.55987027912875</v>
+        <v>11.55987027912874</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>117.5652606754719</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>199.7662926185104</v>
@@ -24666,7 +24666,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>35.05010233172783</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.4326540309573</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>314.0257770630316</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.614066188813503</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -24837,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>55.3595696715109</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5530858569906</v>
       </c>
       <c r="H31" t="n">
-        <v>89.60859306217819</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>122.3877850853864</v>
       </c>
       <c r="J31" t="n">
-        <v>11.55987027912875</v>
+        <v>11.55987027912874</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>117.5652606754719</v>
       </c>
       <c r="S31" t="n">
-        <v>199.7662926185104</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9525392365341</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>284.2813844636727</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>283.2948374677749</v>
@@ -24906,7 +24906,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>314.0257770630316</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>112.8634694374322</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>150.9408918678262</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>215.5040507335656</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>252.2156595111942</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>164.9055179300378</v>
+        <v>312.1719338246562</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5530858569906</v>
       </c>
       <c r="H34" t="n">
         <v>151.7556364732146</v>
@@ -25098,7 +25098,7 @@
         <v>122.3877850853864</v>
       </c>
       <c r="J34" t="n">
-        <v>11.55987027912875</v>
+        <v>11.55987027912874</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>117.5652606754719</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>199.7662926185104</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>227.9525392365341</v>
       </c>
       <c r="U34" t="n">
-        <v>284.2813844636727</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>153.2829073332384</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>269.5502095400691</v>
       </c>
       <c r="X34" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -25159,19 +25159,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>78.33794536174668</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.4326540309573</v>
       </c>
       <c r="H35" t="n">
-        <v>281.9687743958019</v>
+        <v>314.0257770630316</v>
       </c>
       <c r="I35" t="n">
         <v>112.8634694374322</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>150.9408918678262</v>
+        <v>150.9408918678261</v>
       </c>
       <c r="T35" t="n">
-        <v>215.5040507335656</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>252.2156595111942</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25326,16 +25326,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5530858569906</v>
+        <v>43.36131166567345</v>
       </c>
       <c r="H37" t="n">
-        <v>151.7556364732146</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>122.3877850853864</v>
       </c>
       <c r="J37" t="n">
-        <v>11.55987027912875</v>
+        <v>11.55987027912874</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>117.5652606754719</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>199.7662926185104</v>
       </c>
       <c r="T37" t="n">
         <v>227.9525392365341</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>115.4456772400409</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.4326540309573</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>314.0257770630316</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>112.8634694374322</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>150.9408918678262</v>
+        <v>150.9408918678261</v>
       </c>
       <c r="T38" t="n">
-        <v>215.5040507335656</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>240.5850994335317</v>
+        <v>252.2156595111942</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>32.16792526008078</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="39">
@@ -25572,7 +25572,7 @@
         <v>122.3877850853864</v>
       </c>
       <c r="J40" t="n">
-        <v>11.55987027912875</v>
+        <v>11.55987027912874</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>117.5652606754719</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>153.7588214175567</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>227.9525392365341</v>
       </c>
       <c r="U40" t="n">
-        <v>284.2813844636727</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.42997619041819</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>122.9383030724499</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
         <v>410.0096787829314</v>
@@ -25645,10 +25645,10 @@
         <v>410.4326540309573</v>
       </c>
       <c r="H41" t="n">
-        <v>314.0257770630316</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>112.8634694374322</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>150.9408918678262</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>252.2156595111942</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>333.6094813630181</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>184.0318171764598</v>
       </c>
     </row>
     <row r="42">
@@ -25809,7 +25809,7 @@
         <v>122.3877850853864</v>
       </c>
       <c r="J43" t="n">
-        <v>11.55987027912875</v>
+        <v>11.55987027912874</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>117.5652606754719</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>199.7662926185104</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>284.2813844636727</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>270.3366818659848</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.8148072196457</v>
+        <v>117.4784907915534</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>220.43062379975</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>112.8634694374322</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>150.9408918678262</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>215.5040507335656</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>252.2156595111942</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>343.7321458912766</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.27940075088058</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,19 +26034,19 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>20.55300436590042</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5530858569906</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.7556364732146</v>
       </c>
       <c r="I46" t="n">
         <v>122.3877850853864</v>
       </c>
       <c r="J46" t="n">
-        <v>11.55987027912875</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>117.5652606754719</v>
       </c>
       <c r="S46" t="n">
-        <v>199.7662926185104</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>219.8148072196457</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>733140.6222155885</v>
+        <v>733140.6222155886</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>733140.6222155885</v>
+        <v>733140.6222155886</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>595545.5029331462</v>
+        <v>595545.5029331461</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>595545.5029331461</v>
+        <v>595545.5029331462</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>612701.3052058434</v>
+        <v>612701.3052058433</v>
       </c>
       <c r="C2" t="n">
-        <v>612701.3052058435</v>
+        <v>612701.3052058432</v>
       </c>
       <c r="D2" t="n">
         <v>612701.3052058434</v>
       </c>
       <c r="E2" t="n">
+        <v>419167.5503573501</v>
+      </c>
+      <c r="F2" t="n">
         <v>419167.5503573503</v>
       </c>
-      <c r="F2" t="n">
-        <v>419167.5503573501</v>
-      </c>
       <c r="G2" t="n">
+        <v>419167.5503573502</v>
+      </c>
+      <c r="H2" t="n">
         <v>419167.5503573504</v>
-      </c>
-      <c r="H2" t="n">
-        <v>419167.5503573505</v>
       </c>
       <c r="I2" t="n">
         <v>505057.2172431967</v>
       </c>
       <c r="J2" t="n">
-        <v>505057.2172431969</v>
+        <v>505057.2172431967</v>
       </c>
       <c r="K2" t="n">
-        <v>505057.217243197</v>
+        <v>505057.2172431967</v>
       </c>
       <c r="L2" t="n">
-        <v>505057.217243197</v>
+        <v>505057.2172431965</v>
       </c>
       <c r="M2" t="n">
-        <v>419167.5503573504</v>
+        <v>419167.5503573503</v>
       </c>
       <c r="N2" t="n">
-        <v>419167.5503573504</v>
+        <v>419167.5503573502</v>
       </c>
       <c r="O2" t="n">
-        <v>419167.5503573504</v>
+        <v>419167.5503573503</v>
       </c>
       <c r="P2" t="n">
-        <v>419167.5503573504</v>
+        <v>419167.5503573503</v>
       </c>
     </row>
     <row r="3">
@@ -26377,7 +26377,7 @@
         <v>485593.8162452091</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.956016229316332e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>92420.69653999175</v>
+        <v>92420.69653999178</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.956016229316332e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>66767.97541107591</v>
+        <v>66767.97541107588</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>392532.9083931244</v>
       </c>
       <c r="E4" t="n">
-        <v>98270.44135377188</v>
+        <v>98270.44135377185</v>
       </c>
       <c r="F4" t="n">
         <v>98270.44135377189</v>
@@ -26435,7 +26435,7 @@
         <v>98270.44135377186</v>
       </c>
       <c r="H4" t="n">
-        <v>98270.44135377188</v>
+        <v>98270.44135377185</v>
       </c>
       <c r="I4" t="n">
         <v>134035.8941624507</v>
@@ -26450,16 +26450,16 @@
         <v>134035.8941624507</v>
       </c>
       <c r="M4" t="n">
-        <v>98270.44135377191</v>
+        <v>98270.44135377186</v>
       </c>
       <c r="N4" t="n">
+        <v>98270.44135377184</v>
+      </c>
+      <c r="O4" t="n">
+        <v>98270.44135377184</v>
+      </c>
+      <c r="P4" t="n">
         <v>98270.44135377186</v>
-      </c>
-      <c r="O4" t="n">
-        <v>98270.44135377189</v>
-      </c>
-      <c r="P4" t="n">
-        <v>98270.44135377189</v>
       </c>
     </row>
     <row r="5">
@@ -26484,10 +26484,10 @@
         <v>45610.78431789312</v>
       </c>
       <c r="G5" t="n">
-        <v>45610.78431789312</v>
+        <v>45610.78431789311</v>
       </c>
       <c r="H5" t="n">
-        <v>45610.78431789312</v>
+        <v>45610.78431789311</v>
       </c>
       <c r="I5" t="n">
         <v>66741.79070562293</v>
@@ -26499,16 +26499,16 @@
         <v>66741.79070562293</v>
       </c>
       <c r="L5" t="n">
-        <v>66741.79070562292</v>
+        <v>66741.79070562293</v>
       </c>
       <c r="M5" t="n">
-        <v>45610.78431789312</v>
+        <v>45610.78431789311</v>
       </c>
       <c r="N5" t="n">
-        <v>45610.78431789312</v>
+        <v>45610.78431789311</v>
       </c>
       <c r="O5" t="n">
-        <v>45610.78431789312</v>
+        <v>45610.78431789311</v>
       </c>
       <c r="P5" t="n">
         <v>45610.78431789312</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>186540.796812719</v>
+        <v>186497.111088047</v>
       </c>
       <c r="C6" t="n">
-        <v>186540.7968127191</v>
+        <v>186497.1110880469</v>
       </c>
       <c r="D6" t="n">
-        <v>186540.796812719</v>
+        <v>186497.1110880471</v>
       </c>
       <c r="E6" t="n">
-        <v>-210307.4915595237</v>
+        <v>-216399.1071232112</v>
       </c>
       <c r="F6" t="n">
-        <v>275286.3246856851</v>
+        <v>269194.7091219979</v>
       </c>
       <c r="G6" t="n">
-        <v>275286.3246856855</v>
+        <v>269194.7091219979</v>
       </c>
       <c r="H6" t="n">
-        <v>275286.3246856855</v>
+        <v>269194.7091219981</v>
       </c>
       <c r="I6" t="n">
-        <v>211858.8358351312</v>
+        <v>208451.2723616266</v>
       </c>
       <c r="J6" t="n">
-        <v>304279.5323751232</v>
+        <v>300871.9689016185</v>
       </c>
       <c r="K6" t="n">
-        <v>304279.5323751233</v>
+        <v>300871.9689016183</v>
       </c>
       <c r="L6" t="n">
-        <v>304279.5323751233</v>
+        <v>300871.9689016183</v>
       </c>
       <c r="M6" t="n">
-        <v>208518.3492746094</v>
+        <v>202426.7337109221</v>
       </c>
       <c r="N6" t="n">
-        <v>275286.3246856855</v>
+        <v>269194.7091219979</v>
       </c>
       <c r="O6" t="n">
-        <v>275286.3246856855</v>
+        <v>269194.709121998</v>
       </c>
       <c r="P6" t="n">
-        <v>275286.3246856853</v>
+        <v>269194.709121998</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>375.6852965373866</v>
+        <v>375.6852965373867</v>
       </c>
       <c r="F3" t="n">
-        <v>375.6852965373866</v>
+        <v>375.6852965373867</v>
       </c>
       <c r="G3" t="n">
-        <v>375.6852965373866</v>
+        <v>375.6852965373867</v>
       </c>
       <c r="H3" t="n">
-        <v>375.6852965373866</v>
+        <v>375.6852965373867</v>
       </c>
       <c r="I3" t="n">
-        <v>375.6852965373866</v>
+        <v>375.6852965373867</v>
       </c>
       <c r="J3" t="n">
-        <v>375.6852965373866</v>
+        <v>375.6852965373867</v>
       </c>
       <c r="K3" t="n">
-        <v>375.6852965373866</v>
+        <v>375.6852965373867</v>
       </c>
       <c r="L3" t="n">
-        <v>375.6852965373866</v>
+        <v>375.6852965373867</v>
       </c>
       <c r="M3" t="n">
-        <v>375.6852965373866</v>
+        <v>375.6852965373867</v>
       </c>
       <c r="N3" t="n">
-        <v>375.6852965373866</v>
+        <v>375.6852965373867</v>
       </c>
       <c r="O3" t="n">
-        <v>375.6852965373866</v>
+        <v>375.6852965373867</v>
       </c>
       <c r="P3" t="n">
-        <v>375.6852965373866</v>
+        <v>375.6852965373867</v>
       </c>
     </row>
     <row r="4">
@@ -26804,10 +26804,10 @@
         <v>615.4744219305608</v>
       </c>
       <c r="G4" t="n">
-        <v>615.4744219305608</v>
+        <v>615.4744219305607</v>
       </c>
       <c r="H4" t="n">
-        <v>615.4744219305608</v>
+        <v>615.4744219305607</v>
       </c>
       <c r="I4" t="n">
         <v>963.0238690971695</v>
@@ -26816,19 +26816,19 @@
         <v>963.0238690971695</v>
       </c>
       <c r="K4" t="n">
-        <v>963.0238690971694</v>
+        <v>963.0238690971695</v>
       </c>
       <c r="L4" t="n">
-        <v>963.0238690971693</v>
+        <v>963.0238690971695</v>
       </c>
       <c r="M4" t="n">
-        <v>615.4744219305608</v>
+        <v>615.4744219305607</v>
       </c>
       <c r="N4" t="n">
-        <v>615.4744219305608</v>
+        <v>615.4744219305607</v>
       </c>
       <c r="O4" t="n">
-        <v>615.4744219305608</v>
+        <v>615.4744219305605</v>
       </c>
       <c r="P4" t="n">
         <v>615.4744219305608</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.695020286645415e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.695020286645415e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>375.6852965373866</v>
+        <v>375.6852965373867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>347.5494471666087</v>
+        <v>347.5494471666088</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>267.924974763952</v>
+        <v>267.9249747639519</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.695020286645415e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.695020286645415e-14</v>
       </c>
     </row>
     <row r="3">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-3.695020286645415e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-3.695020286645415e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-3.695020286645415e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-3.695020286645415e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-3.695020286645415e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-3.695020286645415e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-3.695020286645415e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-3.695020286645415e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-3.695020286645415e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-3.695020286645415e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-3.695020286645415e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-3.695020286645415e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-3.695020286645415e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-3.695020286645415e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-3.695020286645415e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28237,7 +28237,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>-5.678479289571113e-13</v>
       </c>
     </row>
     <row r="13">
@@ -28897,7 +28897,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>-8.100187187665142e-13</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -30355,7 +30355,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>-9.003997547551988e-13</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30826,7 +30826,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>-6.786985375564738e-13</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -31770,25 +31770,25 @@
         <v>238.3355072696428</v>
       </c>
       <c r="M11" t="n">
-        <v>265.1941741733483</v>
+        <v>265.1941741733484</v>
       </c>
       <c r="N11" t="n">
-        <v>269.4852931634462</v>
+        <v>269.4852931634463</v>
       </c>
       <c r="O11" t="n">
         <v>254.4673206310095</v>
       </c>
       <c r="P11" t="n">
-        <v>217.1819708490326</v>
+        <v>217.1819708490327</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.0946153425194</v>
+        <v>163.0946153425195</v>
       </c>
       <c r="R11" t="n">
-        <v>94.87092063765475</v>
+        <v>94.87092063765476</v>
       </c>
       <c r="S11" t="n">
-        <v>34.41579374812342</v>
+        <v>34.41579374812343</v>
       </c>
       <c r="T11" t="n">
         <v>6.611306072733306</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8080778076464543</v>
+        <v>0.8080778076464544</v>
       </c>
       <c r="H12" t="n">
-        <v>7.804330405427599</v>
+        <v>7.804330405427601</v>
       </c>
       <c r="I12" t="n">
         <v>27.821977149231</v>
       </c>
       <c r="J12" t="n">
-        <v>76.3456318180363</v>
+        <v>76.34563181803631</v>
       </c>
       <c r="K12" t="n">
-        <v>130.4868449303487</v>
+        <v>130.4868449303488</v>
       </c>
       <c r="L12" t="n">
         <v>175.4556660856918</v>
@@ -31855,7 +31855,7 @@
         <v>210.167569805382</v>
       </c>
       <c r="O12" t="n">
-        <v>192.2622668043737</v>
+        <v>192.2622668043738</v>
       </c>
       <c r="P12" t="n">
         <v>154.3074192513655</v>
@@ -31873,7 +31873,7 @@
         <v>3.257120636960927</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05316301366095096</v>
+        <v>0.05316301366095097</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6774652888379102</v>
+        <v>0.6774652888379104</v>
       </c>
       <c r="H13" t="n">
-        <v>6.023282295304334</v>
+        <v>6.023282295304335</v>
       </c>
       <c r="I13" t="n">
         <v>20.37322886796189</v>
       </c>
       <c r="J13" t="n">
-        <v>47.89679592084025</v>
+        <v>47.89679592084026</v>
       </c>
       <c r="K13" t="n">
         <v>78.70914901225902</v>
@@ -31934,13 +31934,13 @@
         <v>103.6706655182596</v>
       </c>
       <c r="O13" t="n">
-        <v>95.75663918956212</v>
+        <v>95.75663918956214</v>
       </c>
       <c r="P13" t="n">
-        <v>81.93634729726868</v>
+        <v>81.9363472972687</v>
       </c>
       <c r="Q13" t="n">
-        <v>56.72847977714538</v>
+        <v>56.72847977714539</v>
       </c>
       <c r="R13" t="n">
         <v>30.46130289629367</v>
@@ -31949,10 +31949,10 @@
         <v>11.80637235183885</v>
       </c>
       <c r="T13" t="n">
-        <v>2.894624415943797</v>
+        <v>2.894624415943798</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03695265211843151</v>
+        <v>0.03695265211843152</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32007,25 +32007,25 @@
         <v>238.3355072696428</v>
       </c>
       <c r="M14" t="n">
-        <v>265.1941741733483</v>
+        <v>265.1941741733484</v>
       </c>
       <c r="N14" t="n">
-        <v>269.4852931634462</v>
+        <v>269.4852931634463</v>
       </c>
       <c r="O14" t="n">
         <v>254.4673206310095</v>
       </c>
       <c r="P14" t="n">
-        <v>217.1819708490326</v>
+        <v>217.1819708490327</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.0946153425194</v>
+        <v>163.0946153425195</v>
       </c>
       <c r="R14" t="n">
-        <v>94.87092063765475</v>
+        <v>94.87092063765476</v>
       </c>
       <c r="S14" t="n">
-        <v>34.41579374812342</v>
+        <v>34.41579374812343</v>
       </c>
       <c r="T14" t="n">
         <v>6.611306072733306</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8080778076464543</v>
+        <v>0.8080778076464544</v>
       </c>
       <c r="H15" t="n">
-        <v>7.804330405427599</v>
+        <v>7.804330405427601</v>
       </c>
       <c r="I15" t="n">
         <v>27.821977149231</v>
       </c>
       <c r="J15" t="n">
-        <v>76.3456318180363</v>
+        <v>76.34563181803631</v>
       </c>
       <c r="K15" t="n">
-        <v>130.4868449303487</v>
+        <v>130.4868449303488</v>
       </c>
       <c r="L15" t="n">
         <v>175.4556660856918</v>
@@ -32092,7 +32092,7 @@
         <v>210.167569805382</v>
       </c>
       <c r="O15" t="n">
-        <v>192.2622668043737</v>
+        <v>192.2622668043738</v>
       </c>
       <c r="P15" t="n">
         <v>154.3074192513655</v>
@@ -32110,7 +32110,7 @@
         <v>3.257120636960927</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05316301366095096</v>
+        <v>0.05316301366095097</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6774652888379102</v>
+        <v>0.6774652888379104</v>
       </c>
       <c r="H16" t="n">
-        <v>6.023282295304334</v>
+        <v>6.023282295304335</v>
       </c>
       <c r="I16" t="n">
         <v>20.37322886796189</v>
       </c>
       <c r="J16" t="n">
-        <v>47.89679592084025</v>
+        <v>47.89679592084026</v>
       </c>
       <c r="K16" t="n">
         <v>78.70914901225902</v>
@@ -32171,13 +32171,13 @@
         <v>103.6706655182596</v>
       </c>
       <c r="O16" t="n">
-        <v>95.75663918956212</v>
+        <v>95.75663918956214</v>
       </c>
       <c r="P16" t="n">
-        <v>81.93634729726868</v>
+        <v>81.9363472972687</v>
       </c>
       <c r="Q16" t="n">
-        <v>56.72847977714538</v>
+        <v>56.72847977714539</v>
       </c>
       <c r="R16" t="n">
         <v>30.46130289629367</v>
@@ -32186,10 +32186,10 @@
         <v>11.80637235183885</v>
       </c>
       <c r="T16" t="n">
-        <v>2.894624415943797</v>
+        <v>2.894624415943798</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03695265211843151</v>
+        <v>0.03695265211843152</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32244,25 +32244,25 @@
         <v>238.3355072696428</v>
       </c>
       <c r="M17" t="n">
-        <v>265.1941741733483</v>
+        <v>265.1941741733484</v>
       </c>
       <c r="N17" t="n">
-        <v>269.4852931634462</v>
+        <v>269.4852931634463</v>
       </c>
       <c r="O17" t="n">
         <v>254.4673206310095</v>
       </c>
       <c r="P17" t="n">
-        <v>217.1819708490326</v>
+        <v>217.1819708490327</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.0946153425194</v>
+        <v>163.0946153425195</v>
       </c>
       <c r="R17" t="n">
-        <v>94.87092063765475</v>
+        <v>94.87092063765476</v>
       </c>
       <c r="S17" t="n">
-        <v>34.41579374812342</v>
+        <v>34.41579374812343</v>
       </c>
       <c r="T17" t="n">
         <v>6.611306072733306</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8080778076464543</v>
+        <v>0.8080778076464544</v>
       </c>
       <c r="H18" t="n">
-        <v>7.804330405427599</v>
+        <v>7.804330405427601</v>
       </c>
       <c r="I18" t="n">
         <v>27.821977149231</v>
       </c>
       <c r="J18" t="n">
-        <v>76.3456318180363</v>
+        <v>76.34563181803631</v>
       </c>
       <c r="K18" t="n">
-        <v>130.4868449303487</v>
+        <v>130.4868449303488</v>
       </c>
       <c r="L18" t="n">
         <v>175.4556660856918</v>
@@ -32329,7 +32329,7 @@
         <v>210.167569805382</v>
       </c>
       <c r="O18" t="n">
-        <v>192.2622668043737</v>
+        <v>192.2622668043738</v>
       </c>
       <c r="P18" t="n">
         <v>154.3074192513655</v>
@@ -32347,7 +32347,7 @@
         <v>3.257120636960927</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05316301366095096</v>
+        <v>0.05316301366095097</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6774652888379102</v>
+        <v>0.6774652888379104</v>
       </c>
       <c r="H19" t="n">
-        <v>6.023282295304334</v>
+        <v>6.023282295304335</v>
       </c>
       <c r="I19" t="n">
         <v>20.37322886796189</v>
       </c>
       <c r="J19" t="n">
-        <v>47.89679592084025</v>
+        <v>47.89679592084026</v>
       </c>
       <c r="K19" t="n">
         <v>78.70914901225902</v>
@@ -32408,13 +32408,13 @@
         <v>103.6706655182596</v>
       </c>
       <c r="O19" t="n">
-        <v>95.75663918956212</v>
+        <v>95.75663918956214</v>
       </c>
       <c r="P19" t="n">
-        <v>81.93634729726868</v>
+        <v>81.9363472972687</v>
       </c>
       <c r="Q19" t="n">
-        <v>56.72847977714538</v>
+        <v>56.72847977714539</v>
       </c>
       <c r="R19" t="n">
         <v>30.46130289629367</v>
@@ -32423,10 +32423,10 @@
         <v>11.80637235183885</v>
       </c>
       <c r="T19" t="n">
-        <v>2.894624415943797</v>
+        <v>2.894624415943798</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03695265211843151</v>
+        <v>0.03695265211843152</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32481,25 +32481,25 @@
         <v>238.3355072696428</v>
       </c>
       <c r="M20" t="n">
-        <v>265.1941741733483</v>
+        <v>265.1941741733484</v>
       </c>
       <c r="N20" t="n">
-        <v>269.4852931634462</v>
+        <v>269.4852931634463</v>
       </c>
       <c r="O20" t="n">
         <v>254.4673206310095</v>
       </c>
       <c r="P20" t="n">
-        <v>217.1819708490326</v>
+        <v>217.1819708490327</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.0946153425194</v>
+        <v>163.0946153425195</v>
       </c>
       <c r="R20" t="n">
-        <v>94.87092063765475</v>
+        <v>94.87092063765476</v>
       </c>
       <c r="S20" t="n">
-        <v>34.41579374812342</v>
+        <v>34.41579374812343</v>
       </c>
       <c r="T20" t="n">
         <v>6.611306072733306</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8080778076464543</v>
+        <v>0.8080778076464544</v>
       </c>
       <c r="H21" t="n">
-        <v>7.804330405427599</v>
+        <v>7.804330405427601</v>
       </c>
       <c r="I21" t="n">
         <v>27.821977149231</v>
       </c>
       <c r="J21" t="n">
-        <v>76.3456318180363</v>
+        <v>76.34563181803631</v>
       </c>
       <c r="K21" t="n">
-        <v>130.4868449303487</v>
+        <v>130.4868449303488</v>
       </c>
       <c r="L21" t="n">
         <v>175.4556660856918</v>
@@ -32566,7 +32566,7 @@
         <v>210.167569805382</v>
       </c>
       <c r="O21" t="n">
-        <v>192.2622668043737</v>
+        <v>192.2622668043738</v>
       </c>
       <c r="P21" t="n">
         <v>154.3074192513655</v>
@@ -32584,7 +32584,7 @@
         <v>3.257120636960927</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05316301366095096</v>
+        <v>0.05316301366095097</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6774652888379102</v>
+        <v>0.6774652888379104</v>
       </c>
       <c r="H22" t="n">
-        <v>6.023282295304334</v>
+        <v>6.023282295304335</v>
       </c>
       <c r="I22" t="n">
         <v>20.37322886796189</v>
       </c>
       <c r="J22" t="n">
-        <v>47.89679592084025</v>
+        <v>47.89679592084026</v>
       </c>
       <c r="K22" t="n">
         <v>78.70914901225902</v>
@@ -32645,13 +32645,13 @@
         <v>103.6706655182596</v>
       </c>
       <c r="O22" t="n">
-        <v>95.75663918956212</v>
+        <v>95.75663918956214</v>
       </c>
       <c r="P22" t="n">
-        <v>81.93634729726868</v>
+        <v>81.9363472972687</v>
       </c>
       <c r="Q22" t="n">
-        <v>56.72847977714538</v>
+        <v>56.72847977714539</v>
       </c>
       <c r="R22" t="n">
         <v>30.46130289629367</v>
@@ -32660,10 +32660,10 @@
         <v>11.80637235183885</v>
       </c>
       <c r="T22" t="n">
-        <v>2.894624415943797</v>
+        <v>2.894624415943798</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03695265211843151</v>
+        <v>0.03695265211843152</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32718,25 +32718,25 @@
         <v>238.3355072696428</v>
       </c>
       <c r="M23" t="n">
-        <v>265.1941741733483</v>
+        <v>265.1941741733484</v>
       </c>
       <c r="N23" t="n">
-        <v>269.4852931634462</v>
+        <v>269.4852931634463</v>
       </c>
       <c r="O23" t="n">
         <v>254.4673206310095</v>
       </c>
       <c r="P23" t="n">
-        <v>217.1819708490326</v>
+        <v>217.1819708490327</v>
       </c>
       <c r="Q23" t="n">
-        <v>163.0946153425194</v>
+        <v>163.0946153425195</v>
       </c>
       <c r="R23" t="n">
-        <v>94.87092063765475</v>
+        <v>94.87092063765476</v>
       </c>
       <c r="S23" t="n">
-        <v>34.41579374812342</v>
+        <v>34.41579374812343</v>
       </c>
       <c r="T23" t="n">
         <v>6.611306072733306</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8080778076464543</v>
+        <v>0.8080778076464544</v>
       </c>
       <c r="H24" t="n">
-        <v>7.804330405427599</v>
+        <v>7.804330405427601</v>
       </c>
       <c r="I24" t="n">
         <v>27.821977149231</v>
       </c>
       <c r="J24" t="n">
-        <v>76.3456318180363</v>
+        <v>76.34563181803631</v>
       </c>
       <c r="K24" t="n">
-        <v>130.4868449303487</v>
+        <v>130.4868449303488</v>
       </c>
       <c r="L24" t="n">
         <v>175.4556660856918</v>
@@ -32803,7 +32803,7 @@
         <v>210.167569805382</v>
       </c>
       <c r="O24" t="n">
-        <v>192.2622668043737</v>
+        <v>192.2622668043738</v>
       </c>
       <c r="P24" t="n">
         <v>154.3074192513655</v>
@@ -32821,7 +32821,7 @@
         <v>3.257120636960927</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05316301366095096</v>
+        <v>0.05316301366095097</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6774652888379102</v>
+        <v>0.6774652888379104</v>
       </c>
       <c r="H25" t="n">
-        <v>6.023282295304334</v>
+        <v>6.023282295304335</v>
       </c>
       <c r="I25" t="n">
         <v>20.37322886796189</v>
       </c>
       <c r="J25" t="n">
-        <v>47.89679592084025</v>
+        <v>47.89679592084026</v>
       </c>
       <c r="K25" t="n">
         <v>78.70914901225902</v>
@@ -32882,13 +32882,13 @@
         <v>103.6706655182596</v>
       </c>
       <c r="O25" t="n">
-        <v>95.75663918956212</v>
+        <v>95.75663918956214</v>
       </c>
       <c r="P25" t="n">
-        <v>81.93634729726868</v>
+        <v>81.9363472972687</v>
       </c>
       <c r="Q25" t="n">
-        <v>56.72847977714538</v>
+        <v>56.72847977714539</v>
       </c>
       <c r="R25" t="n">
         <v>30.46130289629367</v>
@@ -32897,10 +32897,10 @@
         <v>11.80637235183885</v>
       </c>
       <c r="T25" t="n">
-        <v>2.894624415943797</v>
+        <v>2.894624415943798</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03695265211843151</v>
+        <v>0.03695265211843152</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32955,25 +32955,25 @@
         <v>238.3355072696428</v>
       </c>
       <c r="M26" t="n">
-        <v>265.1941741733483</v>
+        <v>265.1941741733484</v>
       </c>
       <c r="N26" t="n">
-        <v>269.4852931634462</v>
+        <v>269.4852931634463</v>
       </c>
       <c r="O26" t="n">
         <v>254.4673206310095</v>
       </c>
       <c r="P26" t="n">
-        <v>217.1819708490326</v>
+        <v>217.1819708490327</v>
       </c>
       <c r="Q26" t="n">
-        <v>163.0946153425194</v>
+        <v>163.0946153425195</v>
       </c>
       <c r="R26" t="n">
-        <v>94.87092063765475</v>
+        <v>94.87092063765476</v>
       </c>
       <c r="S26" t="n">
-        <v>34.41579374812342</v>
+        <v>34.41579374812343</v>
       </c>
       <c r="T26" t="n">
         <v>6.611306072733306</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8080778076464543</v>
+        <v>0.8080778076464544</v>
       </c>
       <c r="H27" t="n">
-        <v>7.804330405427599</v>
+        <v>7.804330405427601</v>
       </c>
       <c r="I27" t="n">
         <v>27.821977149231</v>
       </c>
       <c r="J27" t="n">
-        <v>76.3456318180363</v>
+        <v>76.34563181803631</v>
       </c>
       <c r="K27" t="n">
-        <v>130.4868449303487</v>
+        <v>130.4868449303488</v>
       </c>
       <c r="L27" t="n">
         <v>175.4556660856918</v>
@@ -33040,7 +33040,7 @@
         <v>210.167569805382</v>
       </c>
       <c r="O27" t="n">
-        <v>192.2622668043737</v>
+        <v>192.2622668043738</v>
       </c>
       <c r="P27" t="n">
         <v>154.3074192513655</v>
@@ -33058,7 +33058,7 @@
         <v>3.257120636960927</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05316301366095096</v>
+        <v>0.05316301366095097</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6774652888379102</v>
+        <v>0.6774652888379104</v>
       </c>
       <c r="H28" t="n">
-        <v>6.023282295304334</v>
+        <v>6.023282295304335</v>
       </c>
       <c r="I28" t="n">
         <v>20.37322886796189</v>
       </c>
       <c r="J28" t="n">
-        <v>47.89679592084025</v>
+        <v>47.89679592084026</v>
       </c>
       <c r="K28" t="n">
         <v>78.70914901225902</v>
@@ -33119,13 +33119,13 @@
         <v>103.6706655182596</v>
       </c>
       <c r="O28" t="n">
-        <v>95.75663918956212</v>
+        <v>95.75663918956214</v>
       </c>
       <c r="P28" t="n">
-        <v>81.93634729726868</v>
+        <v>81.9363472972687</v>
       </c>
       <c r="Q28" t="n">
-        <v>56.72847977714538</v>
+        <v>56.72847977714539</v>
       </c>
       <c r="R28" t="n">
         <v>30.46130289629367</v>
@@ -33134,10 +33134,10 @@
         <v>11.80637235183885</v>
       </c>
       <c r="T28" t="n">
-        <v>2.894624415943797</v>
+        <v>2.894624415943798</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03695265211843151</v>
+        <v>0.03695265211843152</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33192,25 +33192,25 @@
         <v>238.3355072696428</v>
       </c>
       <c r="M29" t="n">
-        <v>265.1941741733483</v>
+        <v>265.1941741733484</v>
       </c>
       <c r="N29" t="n">
-        <v>269.4852931634462</v>
+        <v>269.4852931634463</v>
       </c>
       <c r="O29" t="n">
         <v>254.4673206310095</v>
       </c>
       <c r="P29" t="n">
-        <v>217.1819708490326</v>
+        <v>217.1819708490327</v>
       </c>
       <c r="Q29" t="n">
-        <v>163.0946153425194</v>
+        <v>163.0946153425195</v>
       </c>
       <c r="R29" t="n">
-        <v>94.87092063765475</v>
+        <v>94.87092063765476</v>
       </c>
       <c r="S29" t="n">
-        <v>34.41579374812342</v>
+        <v>34.41579374812343</v>
       </c>
       <c r="T29" t="n">
         <v>6.611306072733306</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8080778076464543</v>
+        <v>0.8080778076464544</v>
       </c>
       <c r="H30" t="n">
-        <v>7.804330405427599</v>
+        <v>7.804330405427601</v>
       </c>
       <c r="I30" t="n">
         <v>27.821977149231</v>
       </c>
       <c r="J30" t="n">
-        <v>76.3456318180363</v>
+        <v>76.34563181803631</v>
       </c>
       <c r="K30" t="n">
-        <v>130.4868449303487</v>
+        <v>130.4868449303488</v>
       </c>
       <c r="L30" t="n">
         <v>175.4556660856918</v>
@@ -33277,7 +33277,7 @@
         <v>210.167569805382</v>
       </c>
       <c r="O30" t="n">
-        <v>192.2622668043737</v>
+        <v>192.2622668043738</v>
       </c>
       <c r="P30" t="n">
         <v>154.3074192513655</v>
@@ -33295,7 +33295,7 @@
         <v>3.257120636960927</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05316301366095096</v>
+        <v>0.05316301366095097</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6774652888379102</v>
+        <v>0.6774652888379104</v>
       </c>
       <c r="H31" t="n">
-        <v>6.023282295304334</v>
+        <v>6.023282295304335</v>
       </c>
       <c r="I31" t="n">
         <v>20.37322886796189</v>
       </c>
       <c r="J31" t="n">
-        <v>47.89679592084025</v>
+        <v>47.89679592084026</v>
       </c>
       <c r="K31" t="n">
         <v>78.70914901225902</v>
@@ -33356,13 +33356,13 @@
         <v>103.6706655182596</v>
       </c>
       <c r="O31" t="n">
-        <v>95.75663918956212</v>
+        <v>95.75663918956214</v>
       </c>
       <c r="P31" t="n">
-        <v>81.93634729726868</v>
+        <v>81.9363472972687</v>
       </c>
       <c r="Q31" t="n">
-        <v>56.72847977714538</v>
+        <v>56.72847977714539</v>
       </c>
       <c r="R31" t="n">
         <v>30.46130289629367</v>
@@ -33371,10 +33371,10 @@
         <v>11.80637235183885</v>
       </c>
       <c r="T31" t="n">
-        <v>2.894624415943797</v>
+        <v>2.894624415943798</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03695265211843151</v>
+        <v>0.03695265211843152</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33429,25 +33429,25 @@
         <v>238.3355072696428</v>
       </c>
       <c r="M32" t="n">
-        <v>265.1941741733483</v>
+        <v>265.1941741733484</v>
       </c>
       <c r="N32" t="n">
-        <v>269.4852931634462</v>
+        <v>269.4852931634463</v>
       </c>
       <c r="O32" t="n">
         <v>254.4673206310095</v>
       </c>
       <c r="P32" t="n">
-        <v>217.1819708490326</v>
+        <v>217.1819708490327</v>
       </c>
       <c r="Q32" t="n">
-        <v>163.0946153425194</v>
+        <v>163.0946153425195</v>
       </c>
       <c r="R32" t="n">
-        <v>94.87092063765475</v>
+        <v>94.87092063765476</v>
       </c>
       <c r="S32" t="n">
-        <v>34.41579374812342</v>
+        <v>34.41579374812343</v>
       </c>
       <c r="T32" t="n">
         <v>6.611306072733306</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8080778076464543</v>
+        <v>0.8080778076464544</v>
       </c>
       <c r="H33" t="n">
-        <v>7.804330405427599</v>
+        <v>7.804330405427601</v>
       </c>
       <c r="I33" t="n">
         <v>27.821977149231</v>
       </c>
       <c r="J33" t="n">
-        <v>76.3456318180363</v>
+        <v>76.34563181803631</v>
       </c>
       <c r="K33" t="n">
-        <v>130.4868449303487</v>
+        <v>130.4868449303488</v>
       </c>
       <c r="L33" t="n">
         <v>175.4556660856918</v>
@@ -33514,7 +33514,7 @@
         <v>210.167569805382</v>
       </c>
       <c r="O33" t="n">
-        <v>192.2622668043737</v>
+        <v>192.2622668043738</v>
       </c>
       <c r="P33" t="n">
         <v>154.3074192513655</v>
@@ -33532,7 +33532,7 @@
         <v>3.257120636960927</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05316301366095096</v>
+        <v>0.05316301366095097</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6774652888379102</v>
+        <v>0.6774652888379104</v>
       </c>
       <c r="H34" t="n">
-        <v>6.023282295304334</v>
+        <v>6.023282295304335</v>
       </c>
       <c r="I34" t="n">
         <v>20.37322886796189</v>
       </c>
       <c r="J34" t="n">
-        <v>47.89679592084025</v>
+        <v>47.89679592084026</v>
       </c>
       <c r="K34" t="n">
         <v>78.70914901225902</v>
@@ -33593,13 +33593,13 @@
         <v>103.6706655182596</v>
       </c>
       <c r="O34" t="n">
-        <v>95.75663918956212</v>
+        <v>95.75663918956214</v>
       </c>
       <c r="P34" t="n">
-        <v>81.93634729726868</v>
+        <v>81.9363472972687</v>
       </c>
       <c r="Q34" t="n">
-        <v>56.72847977714538</v>
+        <v>56.72847977714539</v>
       </c>
       <c r="R34" t="n">
         <v>30.46130289629367</v>
@@ -33608,10 +33608,10 @@
         <v>11.80637235183885</v>
       </c>
       <c r="T34" t="n">
-        <v>2.894624415943797</v>
+        <v>2.894624415943798</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03695265211843151</v>
+        <v>0.03695265211843152</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33666,25 +33666,25 @@
         <v>238.3355072696428</v>
       </c>
       <c r="M35" t="n">
-        <v>265.1941741733483</v>
+        <v>265.1941741733484</v>
       </c>
       <c r="N35" t="n">
-        <v>269.4852931634462</v>
+        <v>269.4852931634463</v>
       </c>
       <c r="O35" t="n">
         <v>254.4673206310095</v>
       </c>
       <c r="P35" t="n">
-        <v>217.1819708490326</v>
+        <v>217.1819708490327</v>
       </c>
       <c r="Q35" t="n">
-        <v>163.0946153425194</v>
+        <v>163.0946153425195</v>
       </c>
       <c r="R35" t="n">
-        <v>94.87092063765475</v>
+        <v>94.87092063765476</v>
       </c>
       <c r="S35" t="n">
-        <v>34.41579374812342</v>
+        <v>34.41579374812343</v>
       </c>
       <c r="T35" t="n">
         <v>6.611306072733306</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8080778076464543</v>
+        <v>0.8080778076464544</v>
       </c>
       <c r="H36" t="n">
-        <v>7.804330405427599</v>
+        <v>7.804330405427601</v>
       </c>
       <c r="I36" t="n">
         <v>27.821977149231</v>
       </c>
       <c r="J36" t="n">
-        <v>76.3456318180363</v>
+        <v>76.34563181803631</v>
       </c>
       <c r="K36" t="n">
-        <v>130.4868449303487</v>
+        <v>130.4868449303488</v>
       </c>
       <c r="L36" t="n">
         <v>175.4556660856918</v>
@@ -33751,7 +33751,7 @@
         <v>210.167569805382</v>
       </c>
       <c r="O36" t="n">
-        <v>192.2622668043737</v>
+        <v>192.2622668043738</v>
       </c>
       <c r="P36" t="n">
         <v>154.3074192513655</v>
@@ -33769,7 +33769,7 @@
         <v>3.257120636960927</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05316301366095096</v>
+        <v>0.05316301366095097</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6774652888379102</v>
+        <v>0.6774652888379104</v>
       </c>
       <c r="H37" t="n">
-        <v>6.023282295304334</v>
+        <v>6.023282295304335</v>
       </c>
       <c r="I37" t="n">
         <v>20.37322886796189</v>
       </c>
       <c r="J37" t="n">
-        <v>47.89679592084025</v>
+        <v>47.89679592084026</v>
       </c>
       <c r="K37" t="n">
         <v>78.70914901225902</v>
@@ -33830,13 +33830,13 @@
         <v>103.6706655182596</v>
       </c>
       <c r="O37" t="n">
-        <v>95.75663918956212</v>
+        <v>95.75663918956214</v>
       </c>
       <c r="P37" t="n">
-        <v>81.93634729726868</v>
+        <v>81.9363472972687</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.72847977714538</v>
+        <v>56.72847977714539</v>
       </c>
       <c r="R37" t="n">
         <v>30.46130289629367</v>
@@ -33845,10 +33845,10 @@
         <v>11.80637235183885</v>
       </c>
       <c r="T37" t="n">
-        <v>2.894624415943797</v>
+        <v>2.894624415943798</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03695265211843151</v>
+        <v>0.03695265211843152</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33903,25 +33903,25 @@
         <v>238.3355072696428</v>
       </c>
       <c r="M38" t="n">
-        <v>265.1941741733483</v>
+        <v>265.1941741733484</v>
       </c>
       <c r="N38" t="n">
-        <v>269.4852931634462</v>
+        <v>269.4852931634463</v>
       </c>
       <c r="O38" t="n">
         <v>254.4673206310095</v>
       </c>
       <c r="P38" t="n">
-        <v>217.1819708490326</v>
+        <v>217.1819708490327</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.0946153425194</v>
+        <v>163.0946153425195</v>
       </c>
       <c r="R38" t="n">
-        <v>94.87092063765475</v>
+        <v>94.87092063765476</v>
       </c>
       <c r="S38" t="n">
-        <v>34.41579374812342</v>
+        <v>34.41579374812343</v>
       </c>
       <c r="T38" t="n">
         <v>6.611306072733306</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8080778076464543</v>
+        <v>0.8080778076464544</v>
       </c>
       <c r="H39" t="n">
-        <v>7.804330405427599</v>
+        <v>7.804330405427601</v>
       </c>
       <c r="I39" t="n">
         <v>27.821977149231</v>
       </c>
       <c r="J39" t="n">
-        <v>76.3456318180363</v>
+        <v>76.34563181803631</v>
       </c>
       <c r="K39" t="n">
-        <v>130.4868449303487</v>
+        <v>130.4868449303488</v>
       </c>
       <c r="L39" t="n">
         <v>175.4556660856918</v>
@@ -33988,7 +33988,7 @@
         <v>210.167569805382</v>
       </c>
       <c r="O39" t="n">
-        <v>192.2622668043737</v>
+        <v>192.2622668043738</v>
       </c>
       <c r="P39" t="n">
         <v>154.3074192513655</v>
@@ -34006,7 +34006,7 @@
         <v>3.257120636960927</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05316301366095096</v>
+        <v>0.05316301366095097</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6774652888379102</v>
+        <v>0.6774652888379104</v>
       </c>
       <c r="H40" t="n">
-        <v>6.023282295304334</v>
+        <v>6.023282295304335</v>
       </c>
       <c r="I40" t="n">
         <v>20.37322886796189</v>
       </c>
       <c r="J40" t="n">
-        <v>47.89679592084025</v>
+        <v>47.89679592084026</v>
       </c>
       <c r="K40" t="n">
         <v>78.70914901225902</v>
@@ -34067,13 +34067,13 @@
         <v>103.6706655182596</v>
       </c>
       <c r="O40" t="n">
-        <v>95.75663918956212</v>
+        <v>95.75663918956214</v>
       </c>
       <c r="P40" t="n">
-        <v>81.93634729726868</v>
+        <v>81.9363472972687</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.72847977714538</v>
+        <v>56.72847977714539</v>
       </c>
       <c r="R40" t="n">
         <v>30.46130289629367</v>
@@ -34082,10 +34082,10 @@
         <v>11.80637235183885</v>
       </c>
       <c r="T40" t="n">
-        <v>2.894624415943797</v>
+        <v>2.894624415943798</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03695265211843151</v>
+        <v>0.03695265211843152</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34140,25 +34140,25 @@
         <v>238.3355072696428</v>
       </c>
       <c r="M41" t="n">
-        <v>265.1941741733483</v>
+        <v>265.1941741733484</v>
       </c>
       <c r="N41" t="n">
-        <v>269.4852931634462</v>
+        <v>269.4852931634463</v>
       </c>
       <c r="O41" t="n">
         <v>254.4673206310095</v>
       </c>
       <c r="P41" t="n">
-        <v>217.1819708490326</v>
+        <v>217.1819708490327</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.0946153425194</v>
+        <v>163.0946153425195</v>
       </c>
       <c r="R41" t="n">
-        <v>94.87092063765475</v>
+        <v>94.87092063765476</v>
       </c>
       <c r="S41" t="n">
-        <v>34.41579374812342</v>
+        <v>34.41579374812343</v>
       </c>
       <c r="T41" t="n">
         <v>6.611306072733306</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8080778076464543</v>
+        <v>0.8080778076464544</v>
       </c>
       <c r="H42" t="n">
-        <v>7.804330405427599</v>
+        <v>7.804330405427601</v>
       </c>
       <c r="I42" t="n">
         <v>27.821977149231</v>
       </c>
       <c r="J42" t="n">
-        <v>76.3456318180363</v>
+        <v>76.34563181803631</v>
       </c>
       <c r="K42" t="n">
-        <v>130.4868449303487</v>
+        <v>130.4868449303488</v>
       </c>
       <c r="L42" t="n">
         <v>175.4556660856918</v>
@@ -34225,7 +34225,7 @@
         <v>210.167569805382</v>
       </c>
       <c r="O42" t="n">
-        <v>192.2622668043737</v>
+        <v>192.2622668043738</v>
       </c>
       <c r="P42" t="n">
         <v>154.3074192513655</v>
@@ -34243,7 +34243,7 @@
         <v>3.257120636960927</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05316301366095096</v>
+        <v>0.05316301366095097</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6774652888379102</v>
+        <v>0.6774652888379104</v>
       </c>
       <c r="H43" t="n">
-        <v>6.023282295304334</v>
+        <v>6.023282295304335</v>
       </c>
       <c r="I43" t="n">
         <v>20.37322886796189</v>
       </c>
       <c r="J43" t="n">
-        <v>47.89679592084025</v>
+        <v>47.89679592084026</v>
       </c>
       <c r="K43" t="n">
         <v>78.70914901225902</v>
@@ -34304,13 +34304,13 @@
         <v>103.6706655182596</v>
       </c>
       <c r="O43" t="n">
-        <v>95.75663918956212</v>
+        <v>95.75663918956214</v>
       </c>
       <c r="P43" t="n">
-        <v>81.93634729726868</v>
+        <v>81.9363472972687</v>
       </c>
       <c r="Q43" t="n">
-        <v>56.72847977714538</v>
+        <v>56.72847977714539</v>
       </c>
       <c r="R43" t="n">
         <v>30.46130289629367</v>
@@ -34319,10 +34319,10 @@
         <v>11.80637235183885</v>
       </c>
       <c r="T43" t="n">
-        <v>2.894624415943797</v>
+        <v>2.894624415943798</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03695265211843151</v>
+        <v>0.03695265211843152</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34377,25 +34377,25 @@
         <v>238.3355072696428</v>
       </c>
       <c r="M44" t="n">
-        <v>265.1941741733483</v>
+        <v>265.1941741733484</v>
       </c>
       <c r="N44" t="n">
-        <v>269.4852931634462</v>
+        <v>269.4852931634463</v>
       </c>
       <c r="O44" t="n">
         <v>254.4673206310095</v>
       </c>
       <c r="P44" t="n">
-        <v>217.1819708490326</v>
+        <v>217.1819708490327</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.0946153425194</v>
+        <v>163.0946153425195</v>
       </c>
       <c r="R44" t="n">
-        <v>94.87092063765475</v>
+        <v>94.87092063765476</v>
       </c>
       <c r="S44" t="n">
-        <v>34.41579374812342</v>
+        <v>34.41579374812343</v>
       </c>
       <c r="T44" t="n">
         <v>6.611306072733306</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8080778076464543</v>
+        <v>0.8080778076464544</v>
       </c>
       <c r="H45" t="n">
-        <v>7.804330405427599</v>
+        <v>7.804330405427601</v>
       </c>
       <c r="I45" t="n">
         <v>27.821977149231</v>
       </c>
       <c r="J45" t="n">
-        <v>76.3456318180363</v>
+        <v>76.34563181803631</v>
       </c>
       <c r="K45" t="n">
-        <v>130.4868449303487</v>
+        <v>130.4868449303488</v>
       </c>
       <c r="L45" t="n">
         <v>175.4556660856918</v>
@@ -34462,7 +34462,7 @@
         <v>210.167569805382</v>
       </c>
       <c r="O45" t="n">
-        <v>192.2622668043737</v>
+        <v>192.2622668043738</v>
       </c>
       <c r="P45" t="n">
         <v>154.3074192513655</v>
@@ -34480,7 +34480,7 @@
         <v>3.257120636960927</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05316301366095096</v>
+        <v>0.05316301366095097</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6774652888379102</v>
+        <v>0.6774652888379104</v>
       </c>
       <c r="H46" t="n">
-        <v>6.023282295304334</v>
+        <v>6.023282295304335</v>
       </c>
       <c r="I46" t="n">
         <v>20.37322886796189</v>
       </c>
       <c r="J46" t="n">
-        <v>47.89679592084025</v>
+        <v>47.89679592084026</v>
       </c>
       <c r="K46" t="n">
         <v>78.70914901225902</v>
@@ -34541,13 +34541,13 @@
         <v>103.6706655182596</v>
       </c>
       <c r="O46" t="n">
-        <v>95.75663918956212</v>
+        <v>95.75663918956214</v>
       </c>
       <c r="P46" t="n">
-        <v>81.93634729726868</v>
+        <v>81.9363472972687</v>
       </c>
       <c r="Q46" t="n">
-        <v>56.72847977714538</v>
+        <v>56.72847977714539</v>
       </c>
       <c r="R46" t="n">
         <v>30.46130289629367</v>
@@ -34556,10 +34556,10 @@
         <v>11.80637235183885</v>
       </c>
       <c r="T46" t="n">
-        <v>2.894624415943797</v>
+        <v>2.894624415943798</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03695265211843151</v>
+        <v>0.03695265211843152</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>19.34937813878832</v>
+        <v>434.6809209691412</v>
       </c>
       <c r="L11" t="n">
-        <v>589.7348740221138</v>
+        <v>46.77529510652823</v>
       </c>
       <c r="M11" t="n">
-        <v>615.4744219305608</v>
+        <v>489.7607448369381</v>
       </c>
       <c r="N11" t="n">
         <v>615.4744219305608</v>
@@ -35427,13 +35427,13 @@
         <v>562.5527594924579</v>
       </c>
       <c r="P11" t="n">
-        <v>29.30516179787614</v>
+        <v>29.3051617978762</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>258.4807301774053</v>
       </c>
       <c r="R11" t="n">
-        <v>5.139016998549565</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>18.49067576368205</v>
+        <v>276.7377498357995</v>
       </c>
       <c r="L12" t="n">
         <v>544.9726814090409</v>
       </c>
       <c r="M12" t="n">
-        <v>89.2645840512358</v>
+        <v>615.4744219305608</v>
       </c>
       <c r="N12" t="n">
-        <v>473.9077414571976</v>
+        <v>103.4524287376737</v>
       </c>
       <c r="O12" t="n">
         <v>588.423833253011</v>
       </c>
       <c r="P12" t="n">
-        <v>459.4548124591405</v>
+        <v>45.45321322722218</v>
       </c>
       <c r="Q12" t="n">
         <v>262.5157059175991</v>
@@ -35573,7 +35573,7 @@
         <v>112.6527729967473</v>
       </c>
       <c r="L13" t="n">
-        <v>202.3439246496549</v>
+        <v>202.3439246496527</v>
       </c>
       <c r="M13" t="n">
         <v>225.3811231378692</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>200.910003047482</v>
       </c>
       <c r="K14" t="n">
-        <v>434.6809209691412</v>
+        <v>13.29188462662708</v>
       </c>
       <c r="L14" t="n">
         <v>589.7348740221138</v>
       </c>
       <c r="M14" t="n">
-        <v>615.4744219305608</v>
+        <v>78.03785967618927</v>
       </c>
       <c r="N14" t="n">
         <v>615.4744219305608</v>
       </c>
       <c r="O14" t="n">
-        <v>67.51252385088901</v>
+        <v>233.4567784097255</v>
       </c>
       <c r="P14" t="n">
-        <v>109.0138546090919</v>
+        <v>447.6434824208036</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>258.4807301774053</v>
       </c>
       <c r="R14" t="n">
-        <v>5.139016998549565</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>125.2518565214804</v>
+        <v>362.2954838800343</v>
       </c>
       <c r="L15" t="n">
         <v>544.9726814090409</v>
       </c>
       <c r="M15" t="n">
-        <v>615.4744219305608</v>
+        <v>89.26458405123583</v>
       </c>
       <c r="N15" t="n">
-        <v>103.4524287376737</v>
+        <v>130.1029333408453</v>
       </c>
       <c r="O15" t="n">
         <v>588.423833253011</v>
@@ -35746,7 +35746,7 @@
         <v>459.4548124591405</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>262.5157059175991</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>200.910003047482</v>
       </c>
       <c r="K17" t="n">
-        <v>13.29188462662705</v>
+        <v>434.6809209691412</v>
       </c>
       <c r="L17" t="n">
-        <v>589.7348740221138</v>
+        <v>366.4980825376617</v>
       </c>
       <c r="M17" t="n">
-        <v>615.4744219305608</v>
+        <v>78.03785967618927</v>
       </c>
       <c r="N17" t="n">
-        <v>615.4744219305608</v>
+        <v>83.08717899121615</v>
       </c>
       <c r="O17" t="n">
         <v>562.5527594924579</v>
       </c>
       <c r="P17" t="n">
-        <v>35.36265531003729</v>
+        <v>447.6434824208036</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>258.4807301774053</v>
       </c>
       <c r="R17" t="n">
-        <v>5.139016998549565</v>
+        <v>5.139016998549579</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>137.2084060939011</v>
       </c>
       <c r="K18" t="n">
-        <v>18.49067576368205</v>
+        <v>362.2954838800343</v>
       </c>
       <c r="L18" t="n">
         <v>544.9726814090409</v>
       </c>
       <c r="M18" t="n">
-        <v>615.4744219305608</v>
+        <v>89.26458405123583</v>
       </c>
       <c r="N18" t="n">
-        <v>615.4744219305608</v>
+        <v>103.4524287376737</v>
       </c>
       <c r="O18" t="n">
-        <v>588.423833253011</v>
+        <v>477.8659317622811</v>
       </c>
       <c r="P18" t="n">
-        <v>54.1940000240519</v>
+        <v>459.4548124591405</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>262.5157059175991</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>434.6809209691412</v>
+        <v>19.34937813878821</v>
       </c>
       <c r="L20" t="n">
         <v>589.7348740221138</v>
       </c>
       <c r="M20" t="n">
-        <v>615.4744219305608</v>
+        <v>615.4744219305607</v>
       </c>
       <c r="N20" t="n">
-        <v>615.4744219305608</v>
+        <v>615.4744219305607</v>
       </c>
       <c r="O20" t="n">
-        <v>67.51252385088901</v>
+        <v>562.5527594924579</v>
       </c>
       <c r="P20" t="n">
-        <v>109.0138546090919</v>
+        <v>29.3051617978762</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>5.139016998549565</v>
+        <v>5.139016998549579</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>137.2084060939011</v>
       </c>
       <c r="K21" t="n">
-        <v>139.4397012079182</v>
+        <v>18.49067576368208</v>
       </c>
       <c r="L21" t="n">
-        <v>544.9726814090409</v>
+        <v>62.88023251454402</v>
       </c>
       <c r="M21" t="n">
-        <v>89.2645840512358</v>
+        <v>615.4744219305607</v>
       </c>
       <c r="N21" t="n">
-        <v>615.4744219305608</v>
+        <v>615.4744219305607</v>
       </c>
       <c r="O21" t="n">
         <v>588.423833253011</v>
       </c>
       <c r="P21" t="n">
-        <v>459.4548124591405</v>
+        <v>136.5623369070482</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>262.5157059175991</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,10 +36366,10 @@
         <v>589.7348740221138</v>
       </c>
       <c r="M23" t="n">
-        <v>662.4054532168715</v>
+        <v>662.4054532168716</v>
       </c>
       <c r="N23" t="n">
-        <v>651.6381807267954</v>
+        <v>651.6381807267956</v>
       </c>
       <c r="O23" t="n">
         <v>562.5527594924579</v>
@@ -36381,7 +36381,7 @@
         <v>258.4807301774053</v>
       </c>
       <c r="R23" t="n">
-        <v>5.139016998550182</v>
+        <v>5.139016998549579</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>137.2084060939011</v>
       </c>
       <c r="K24" t="n">
-        <v>18.49067576368205</v>
+        <v>362.2954838800343</v>
       </c>
       <c r="L24" t="n">
         <v>544.9726814090409</v>
       </c>
       <c r="M24" t="n">
-        <v>694.6811669262357</v>
+        <v>89.26458405123583</v>
       </c>
       <c r="N24" t="n">
         <v>103.4524287376737</v>
       </c>
       <c r="O24" t="n">
-        <v>588.423833253011</v>
+        <v>477.8659317622806</v>
       </c>
       <c r="P24" t="n">
         <v>459.4548124591405</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.55443576212256</v>
+        <v>262.5157059175991</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36603,10 +36603,10 @@
         <v>589.7348740221138</v>
       </c>
       <c r="M26" t="n">
-        <v>662.4054532168715</v>
+        <v>662.4054532168716</v>
       </c>
       <c r="N26" t="n">
-        <v>651.6381807267954</v>
+        <v>651.6381807267956</v>
       </c>
       <c r="O26" t="n">
         <v>562.5527594924579</v>
@@ -36618,7 +36618,7 @@
         <v>258.4807301774053</v>
       </c>
       <c r="R26" t="n">
-        <v>5.139016998549565</v>
+        <v>5.139016998549579</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>137.2084060939011</v>
       </c>
       <c r="K27" t="n">
-        <v>18.49067576368205</v>
+        <v>181.7856669116994</v>
       </c>
       <c r="L27" t="n">
-        <v>363.3836297564624</v>
+        <v>62.88023251454402</v>
       </c>
       <c r="M27" t="n">
         <v>694.6811669262357</v>
@@ -36691,7 +36691,7 @@
         <v>588.423833253011</v>
       </c>
       <c r="P27" t="n">
-        <v>45.45321322722215</v>
+        <v>45.45321322722218</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36840,10 +36840,10 @@
         <v>589.7348740221138</v>
       </c>
       <c r="M29" t="n">
-        <v>662.4054532168715</v>
+        <v>662.4054532168716</v>
       </c>
       <c r="N29" t="n">
-        <v>651.6381807267954</v>
+        <v>651.6381807267956</v>
       </c>
       <c r="O29" t="n">
         <v>562.5527594924579</v>
@@ -36855,7 +36855,7 @@
         <v>258.4807301774053</v>
       </c>
       <c r="R29" t="n">
-        <v>5.139016998549565</v>
+        <v>5.139016998549579</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>137.2084060939011</v>
       </c>
       <c r="K30" t="n">
-        <v>18.49067576368205</v>
+        <v>362.2954838800343</v>
       </c>
       <c r="L30" t="n">
-        <v>363.3836297564624</v>
+        <v>434.4147799183104</v>
       </c>
       <c r="M30" t="n">
-        <v>694.6811669262357</v>
+        <v>89.26458405123583</v>
       </c>
       <c r="N30" t="n">
-        <v>726.5975153842933</v>
+        <v>103.4524287376737</v>
       </c>
       <c r="O30" t="n">
         <v>588.423833253011</v>
       </c>
       <c r="P30" t="n">
-        <v>45.45321322722215</v>
+        <v>459.4548124591405</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>262.5157059175991</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,10 +37077,10 @@
         <v>589.7348740221138</v>
       </c>
       <c r="M32" t="n">
-        <v>662.4054532168715</v>
+        <v>662.4054532168716</v>
       </c>
       <c r="N32" t="n">
-        <v>651.6381807267954</v>
+        <v>651.6381807267956</v>
       </c>
       <c r="O32" t="n">
         <v>562.5527594924579</v>
@@ -37092,7 +37092,7 @@
         <v>258.4807301774053</v>
       </c>
       <c r="R32" t="n">
-        <v>5.139016998549565</v>
+        <v>5.139016998549579</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>137.2084060939011</v>
       </c>
       <c r="K33" t="n">
-        <v>18.49067576368205</v>
+        <v>362.2954838800343</v>
       </c>
       <c r="L33" t="n">
-        <v>363.3836297564624</v>
+        <v>544.9726814090409</v>
       </c>
       <c r="M33" t="n">
-        <v>694.6811669262357</v>
+        <v>89.26458405123583</v>
       </c>
       <c r="N33" t="n">
-        <v>726.5975153842933</v>
+        <v>103.4524287376737</v>
       </c>
       <c r="O33" t="n">
-        <v>588.423833253011</v>
+        <v>477.8659317622806</v>
       </c>
       <c r="P33" t="n">
-        <v>45.45321322722215</v>
+        <v>459.4548124591405</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>262.5157059175991</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>200.910003047482</v>
       </c>
       <c r="K35" t="n">
-        <v>24.48839513733805</v>
+        <v>434.6809209691412</v>
       </c>
       <c r="L35" t="n">
-        <v>589.7348740221138</v>
+        <v>366.4980825376617</v>
       </c>
       <c r="M35" t="n">
-        <v>615.4744219305608</v>
+        <v>78.03785967618927</v>
       </c>
       <c r="N35" t="n">
-        <v>615.4744219305608</v>
+        <v>83.08717899121615</v>
       </c>
       <c r="O35" t="n">
         <v>562.5527594924579</v>
       </c>
       <c r="P35" t="n">
-        <v>29.30516179787614</v>
+        <v>447.6434824208036</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>258.4807301774053</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>5.139016998549579</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>137.2084060939011</v>
       </c>
       <c r="K36" t="n">
-        <v>18.49067576368205</v>
+        <v>362.2954838800343</v>
       </c>
       <c r="L36" t="n">
         <v>544.9726814090409</v>
       </c>
       <c r="M36" t="n">
-        <v>89.2645840512358</v>
+        <v>89.26458405123583</v>
       </c>
       <c r="N36" t="n">
-        <v>599.2150412808959</v>
+        <v>103.4524287376737</v>
       </c>
       <c r="O36" t="n">
-        <v>588.423833253011</v>
+        <v>477.8659317622811</v>
       </c>
       <c r="P36" t="n">
         <v>459.4548124591405</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>262.5157059175991</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,13 +37548,13 @@
         <v>434.6809209691412</v>
       </c>
       <c r="L38" t="n">
-        <v>46.7752951065282</v>
+        <v>46.77529510652823</v>
       </c>
       <c r="M38" t="n">
-        <v>78.03785967618921</v>
+        <v>78.03785967618927</v>
       </c>
       <c r="N38" t="n">
-        <v>402.8099664223503</v>
+        <v>407.9489834208994</v>
       </c>
       <c r="O38" t="n">
         <v>562.5527594924579</v>
@@ -37566,7 +37566,7 @@
         <v>258.4807301774053</v>
       </c>
       <c r="R38" t="n">
-        <v>5.139016998549565</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.2084060939011</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>18.49067576368205</v>
+        <v>362.2954838800343</v>
       </c>
       <c r="L39" t="n">
         <v>544.9726814090409</v>
       </c>
       <c r="M39" t="n">
-        <v>585.0271965944567</v>
+        <v>615.4744219305607</v>
       </c>
       <c r="N39" t="n">
-        <v>103.4524287376737</v>
+        <v>115.9141105212686</v>
       </c>
       <c r="O39" t="n">
-        <v>588.423833253011</v>
+        <v>76.40281819326265</v>
       </c>
       <c r="P39" t="n">
         <v>459.4548124591405</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>262.5157059175991</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,13 +37785,13 @@
         <v>434.6809209691412</v>
       </c>
       <c r="L41" t="n">
-        <v>46.7752951065282</v>
+        <v>46.77529510652823</v>
       </c>
       <c r="M41" t="n">
-        <v>78.03785967618921</v>
+        <v>78.03785967618927</v>
       </c>
       <c r="N41" t="n">
-        <v>407.9489834209</v>
+        <v>402.8099664223492</v>
       </c>
       <c r="O41" t="n">
         <v>562.5527594924579</v>
@@ -37803,7 +37803,7 @@
         <v>258.4807301774053</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>5.139016998549579</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>137.2084060939011</v>
       </c>
       <c r="K42" t="n">
-        <v>18.49067576368205</v>
+        <v>362.2954838800343</v>
       </c>
       <c r="L42" t="n">
-        <v>544.9726814090409</v>
+        <v>420.2259570987345</v>
       </c>
       <c r="M42" t="n">
-        <v>459.7198967707598</v>
+        <v>615.4744219305605</v>
       </c>
       <c r="N42" t="n">
         <v>103.4524287376737</v>
       </c>
       <c r="O42" t="n">
-        <v>588.423833253011</v>
+        <v>76.40281819326265</v>
       </c>
       <c r="P42" t="n">
         <v>459.4548124591405</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>200.910003047482</v>
       </c>
       <c r="K44" t="n">
-        <v>19.34937813878832</v>
+        <v>434.6809209691412</v>
       </c>
       <c r="L44" t="n">
-        <v>589.7348740221138</v>
+        <v>46.77529510652823</v>
       </c>
       <c r="M44" t="n">
-        <v>615.4744219305608</v>
+        <v>78.03785967618927</v>
       </c>
       <c r="N44" t="n">
-        <v>615.4744219305608</v>
+        <v>407.9489834208999</v>
       </c>
       <c r="O44" t="n">
         <v>562.5527594924579</v>
       </c>
       <c r="P44" t="n">
-        <v>29.30516179787614</v>
+        <v>447.6434824208036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>258.4807301774053</v>
       </c>
       <c r="R44" t="n">
-        <v>5.139016998549565</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>137.2084060939011</v>
       </c>
       <c r="K45" t="n">
-        <v>362.2954838800342</v>
+        <v>362.2954838800343</v>
       </c>
       <c r="L45" t="n">
-        <v>72.70025399561735</v>
+        <v>62.88023251454402</v>
       </c>
       <c r="M45" t="n">
-        <v>615.4744219305608</v>
+        <v>89.26458405123583</v>
       </c>
       <c r="N45" t="n">
-        <v>615.4744219305608</v>
+        <v>474.9869761414412</v>
       </c>
       <c r="O45" t="n">
         <v>588.423833253011</v>
       </c>
       <c r="P45" t="n">
-        <v>45.45321322722215</v>
+        <v>459.4548124591405</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>262.5157059175991</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
